--- a/GradRates2011_2021.xlsx
+++ b/GradRates2011_2021.xlsx
@@ -5,20 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcmo-my.sharepoint.com/personal/cori_miller_westminster-mo_edu/Documents/DataScience/Capstone/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cori.tynes\Desktop\CAPSTONE\CM_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E4CA0144-7CD8-4755-9282-557CB89C284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC035BD-883B-4EA3-8302-BFE5DEE3B83D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA90FF45-C384-499E-A182-F67F8DCA15CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A46ABD2A-4191-4ADD-816C-EB826A6B81EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A46ABD2A-4191-4ADD-816C-EB826A6B81EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$298</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="45">
   <si>
     <t>Westminster College</t>
   </si>
@@ -161,6 +166,18 @@
   <si>
     <t>% Women</t>
   </si>
+  <si>
+    <t>Average of % Women</t>
+  </si>
+  <si>
+    <t>Average of Over All Grad Rate</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
@@ -203,9 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +243,7063 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[GradRates2011_2021.xlsx]Sheet2!PivotTable15</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Over All Grad Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Allen University</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beloit College</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bennington College</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bethany Lutheran College</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centenary College of Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cornell College</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Covenant College</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Earlham College</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fisk University</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Franklin College</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hanover College</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Harvey Mudd College</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Houghton University</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lycoming College</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lyon College</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maryville College</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Millsaps College</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monmouth College</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pitzer College</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ripon College</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Rust College</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Simpson University</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Southern Virginia University</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Tougaloo College</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Warren Wilson College</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Westminster College</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Young Harris College</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.21699997828393106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78066850051749914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69120657592254953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54120167073874115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55117482887906211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68825476771664207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63914530431505723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68578496206814399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48242390985489064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61072891752284508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69212236606948119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91363695136060274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70811189367884197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66004993993380301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47017212583904766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53705218480617811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66703595466172283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57708616409562097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84929889195474073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68432147464107684</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28585785143488845</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48054450486338035</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32718769891186067</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4503908414577818</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48782492355645118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6297301728550081</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40267698205453345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4123-484A-99A9-A3465F4A0219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of % Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Allen University</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beloit College</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bennington College</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bethany Lutheran College</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Centenary College of Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cornell College</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Covenant College</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Earlham College</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fisk University</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Franklin College</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hanover College</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Harvey Mudd College</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Houghton University</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lycoming College</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lyon College</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Maryville College</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Millsaps College</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monmouth College</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pitzer College</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ripon College</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Rust College</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Simpson University</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Southern Virginia University</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Tougaloo College</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Warren Wilson College</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Westminster College</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Young Harris College</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.54089407828414382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56790110027406804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68323352848120689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56635293269742248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57367605244694075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51854367390628742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54778388120628041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55023177530724143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67881121632860841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49082706972357892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55082270635814889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41978681647397376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66327558754654137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53255022932360774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50780692932569516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50296754071014604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47866755656637261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51247871079905161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60225733158280914</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51607709496869147</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60816511164144516</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64566554741401594</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59842195930467423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67147979880613107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62785542259709692</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45775325522556271</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55492424470508361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4123-484A-99A9-A3465F4A0219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="994872943"/>
+        <c:axId val="994863375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="994872943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994863375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="994863375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="994872943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175962</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>236683</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C455301-03E1-44C1-891A-2181DF79BF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cori Miller" refreshedDate="45254.448037152775" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="297" xr:uid="{7FAAC9A9-9EA0-4CEA-90BB-7488A793CB0D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N298" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="unitid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="106342" maxValue="239628"/>
+    </cacheField>
+    <cacheField name="institution name" numFmtId="0">
+      <sharedItems count="27">
+        <s v="Allen University"/>
+        <s v="Beloit College"/>
+        <s v="Bennington College"/>
+        <s v="Bethany Lutheran College"/>
+        <s v="Centenary College of Louisiana"/>
+        <s v="Cornell College"/>
+        <s v="Covenant College"/>
+        <s v="Earlham College"/>
+        <s v="Fisk University"/>
+        <s v="Franklin College"/>
+        <s v="Hanover College"/>
+        <s v="Harvey Mudd College"/>
+        <s v="Houghton University"/>
+        <s v="Lycoming College"/>
+        <s v="Lyon College"/>
+        <s v="Maryville College"/>
+        <s v="Millsaps College"/>
+        <s v="Monmouth College"/>
+        <s v="Pitzer College"/>
+        <s v="Ripon College"/>
+        <s v="Rust College"/>
+        <s v="Simpson University"/>
+        <s v="Southern Virginia University"/>
+        <s v="Tougaloo College"/>
+        <s v="Warren Wilson College"/>
+        <s v="Westminster College"/>
+        <s v="Young Harris College"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2011" maxValue="2021"/>
+    </cacheField>
+    <cacheField name="FTFT Cohort Grand total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="67" maxValue="448"/>
+    </cacheField>
+    <cacheField name="FTFT Cohort Total men" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="204"/>
+    </cacheField>
+    <cacheField name="FTFT Cohort Total women" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="265"/>
+    </cacheField>
+    <cacheField name="% Men " numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23404255319148937" maxValue="0.80487804878048785"/>
+    </cacheField>
+    <cacheField name="% Women" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1951219512195122" maxValue="0.76595744680851063"/>
+    </cacheField>
+    <cacheField name="Total Completers" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="288"/>
+    </cacheField>
+    <cacheField name="Total Completers Men" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="135"/>
+    </cacheField>
+    <cacheField name="Total Completers Women" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="177"/>
+    </cacheField>
+    <cacheField name="Over All Grad Rate" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.2682926829268292E-2" maxValue="0.95876288659793818" count="297">
+        <n v="0.22674418604651161"/>
+        <n v="0.19047619047619047"/>
+        <n v="0.22346368715083798"/>
+        <n v="0.31404958677685951"/>
+        <n v="0.24022346368715083"/>
+        <n v="0.18437500000000001"/>
+        <n v="0.1908713692946058"/>
+        <n v="0.2822085889570552"/>
+        <n v="0.22857142857142856"/>
+        <n v="0.21333333333333335"/>
+        <n v="9.2682926829268292E-2"/>
+        <n v="0.73469387755102045"/>
+        <n v="0.77591973244147161"/>
+        <n v="0.74916387959866215"/>
+        <n v="0.79421221864951763"/>
+        <n v="0.8571428571428571"/>
+        <n v="0.73273273273273276"/>
+        <n v="0.8162650602409639"/>
+        <n v="0.80415430267062316"/>
+        <n v="0.78153846153846152"/>
+        <n v="0.78386167146974062"/>
+        <n v="0.75766871165644167"/>
+        <n v="0.67757009345794394"/>
+        <n v="0.7120418848167539"/>
+        <n v="0.76428571428571423"/>
+        <n v="0.74111675126903553"/>
+        <n v="0.67452830188679247"/>
+        <n v="0.70238095238095233"/>
+        <n v="0.6767676767676768"/>
+        <n v="0.67368421052631577"/>
+        <n v="0.67156862745098034"/>
+        <n v="0.63779527559055116"/>
+        <n v="0.67153284671532842"/>
+        <n v="0.62686567164179108"/>
+        <n v="0.61702127659574468"/>
+        <n v="0.54109589041095896"/>
+        <n v="0.55147058823529416"/>
+        <n v="0.51851851851851849"/>
+        <n v="0.54545454545454541"/>
+        <n v="0.49397590361445781"/>
+        <n v="0.54696132596685088"/>
+        <n v="0.49431818181818182"/>
+        <n v="0.51136363636363635"/>
+        <n v="0.50617283950617287"/>
+        <n v="0.56687898089171973"/>
+        <n v="0.55714285714285716"/>
+        <n v="0.59055118110236215"/>
+        <n v="0.60126582278481011"/>
+        <n v="0.48333333333333334"/>
+        <n v="0.46875"/>
+        <n v="0.5467625899280576"/>
+        <n v="0.52032520325203258"/>
+        <n v="0.59"/>
+        <n v="0.55601659751037347"/>
+        <n v="0.5818965517241379"/>
+        <n v="0.6376811594202898"/>
+        <n v="0.67432950191570884"/>
+        <n v="0.68888888888888888"/>
+        <n v="0.75827814569536423"/>
+        <n v="0.7100591715976331"/>
+        <n v="0.67930029154518945"/>
+        <n v="0.68059701492537317"/>
+        <n v="0.65689149560117299"/>
+        <n v="0.67721518987341767"/>
+        <n v="0.708502024291498"/>
+        <n v="0.69905956112852663"/>
+        <n v="0.72868217054263562"/>
+        <n v="0.67547169811320751"/>
+        <n v="0.64745762711864407"/>
+        <n v="0.70522388059701491"/>
+        <n v="0.69473684210526321"/>
+        <n v="0.67286245353159846"/>
+        <n v="0.63898916967509023"/>
+        <n v="0.56554307116104874"/>
+        <n v="0.58075601374570451"/>
+        <n v="0.60606060606060608"/>
+        <n v="0.51481481481481484"/>
+        <n v="0.72619047619047616"/>
+        <n v="0.67407407407407405"/>
+        <n v="0.64031620553359681"/>
+        <n v="0.63859649122807016"/>
+        <n v="0.68240343347639487"/>
+        <n v="0.70501474926253682"/>
+        <n v="0.67361111111111116"/>
+        <n v="0.71517027863777094"/>
+        <n v="0.71"/>
+        <n v="0.71571906354515047"/>
+        <n v="0.66253869969040247"/>
+        <n v="0.45673076923076922"/>
+        <n v="0.50510204081632648"/>
+        <n v="0.50241545893719808"/>
+        <n v="0.44252873563218392"/>
+        <n v="0.51724137931034486"/>
+        <n v="0.44171779141104295"/>
+        <n v="0.5280898876404494"/>
+        <n v="0.40186915887850466"/>
+        <n v="0.52173913043478259"/>
+        <n v="0.53639846743295017"/>
+        <n v="0.45283018867924529"/>
+        <n v="0.61245674740484424"/>
+        <n v="0.6330275229357798"/>
+        <n v="0.65441176470588236"/>
+        <n v="0.60839160839160844"/>
+        <n v="0.61678832116788318"/>
+        <n v="0.65743944636678198"/>
+        <n v="0.59934853420195444"/>
+        <n v="0.61128526645768022"/>
+        <n v="0.57102272727272729"/>
+        <n v="0.60439560439560436"/>
+        <n v="0.5494505494505495"/>
+        <n v="0.63486842105263153"/>
+        <n v="0.71672354948805461"/>
+        <n v="0.69161676646706582"/>
+        <n v="0.71505376344086025"/>
+        <n v="0.71028037383177567"/>
+        <n v="0.70625000000000004"/>
+        <n v="0.67235494880546076"/>
+        <n v="0.68597560975609762"/>
+        <n v="0.7186147186147186"/>
+        <n v="0.65217391304347827"/>
+        <n v="0.7094339622641509"/>
+        <n v="0.94392523364485981"/>
+        <n v="0.92708333333333337"/>
+        <n v="0.91666666666666663"/>
+        <n v="0.91919191919191923"/>
+        <n v="0.95876288659793818"/>
+        <n v="0.9329896907216495"/>
+        <n v="0.91787439613526567"/>
+        <n v="0.90099009900990101"/>
+        <n v="0.90816326530612246"/>
+        <n v="0.8833333333333333"/>
+        <n v="0.84102564102564104"/>
+        <n v="0.64609053497942381"/>
+        <n v="0.64830508474576276"/>
+        <n v="0.7488789237668162"/>
+        <n v="0.71120689655172409"/>
+        <n v="0.73282442748091603"/>
+        <n v="0.71936758893280628"/>
+        <n v="0.72695035460992907"/>
+        <n v="0.75840978593272168"/>
+        <n v="0.73863636363636365"/>
+        <n v="0.67320261437908502"/>
+        <n v="0.68535825545171336"/>
+        <n v="0.66858789625360227"/>
+        <n v="0.61832061068702293"/>
+        <n v="0.67146974063400577"/>
+        <n v="0.67289719626168221"/>
+        <n v="0.67307692307692313"/>
+        <n v="0.7167630057803468"/>
+        <n v="0.63707571801566576"/>
+        <n v="0.61764705882352944"/>
+        <n v="0.63909774436090228"/>
+        <n v="0.64533333333333331"/>
+        <n v="0.70028011204481788"/>
+        <n v="0.45539906103286387"/>
+        <n v="0.42519685039370081"/>
+        <n v="0.53801169590643272"/>
+        <n v="0.49056603773584906"/>
+        <n v="0.52258064516129032"/>
+        <n v="0.39393939393939392"/>
+        <n v="0.37962962962962965"/>
+        <n v="0.49019607843137253"/>
+        <n v="0.49650349650349651"/>
+        <n v="0.484375"/>
+        <n v="0.49549549549549549"/>
+        <n v="0.55621301775147924"/>
+        <n v="0.45180722891566266"/>
+        <n v="0.51002865329512892"/>
+        <n v="0.54632587859424919"/>
+        <n v="0.59385665529010234"/>
+        <n v="0.54512635379061369"/>
+        <n v="0.52631578947368418"/>
+        <n v="0.54208754208754206"/>
+        <n v="0.55835962145110407"/>
+        <n v="0.53691275167785235"/>
+        <n v="0.54054054054054057"/>
+        <n v="0.61538461538461542"/>
+        <n v="0.68085106382978722"/>
+        <n v="0.71511627906976749"/>
+        <n v="0.63809523809523805"/>
+        <n v="0.6651785714285714"/>
+        <n v="0.71563981042654023"/>
+        <n v="0.66192170818505336"/>
+        <n v="0.6428571428571429"/>
+        <n v="0.6317567567567568"/>
+        <n v="0.7155555555555555"/>
+        <n v="0.65503875968992253"/>
+        <n v="0.55185185185185182"/>
+        <n v="0.58312020460358061"/>
+        <n v="0.61794871794871797"/>
+        <n v="0.57434402332361512"/>
+        <n v="0.59882005899705015"/>
+        <n v="0.55774647887323947"/>
+        <n v="0.57671957671957674"/>
+        <n v="0.55613577023498695"/>
+        <n v="0.58269720101781175"/>
+        <n v="0.57908163265306123"/>
+        <n v="0.56948228882833785"/>
+        <n v="0.88389513108614237"/>
+        <n v="0.83208955223880599"/>
+        <n v="0.84905660377358494"/>
+        <n v="0.83524904214559392"/>
+        <n v="0.8309352517985612"/>
+        <n v="0.87591240875912413"/>
+        <n v="0.90157480314960625"/>
+        <n v="0.83969465648854957"/>
+        <n v="0.8214285714285714"/>
+        <n v="0.8666666666666667"/>
+        <n v="0.80578512396694213"/>
+        <n v="0.62037037037037035"/>
+        <n v="0.67298578199052128"/>
+        <n v="0.66806722689075626"/>
+        <n v="0.68137254901960786"/>
+        <n v="0.67841409691629961"/>
+        <n v="0.67820069204152245"/>
+        <n v="0.68951612903225812"/>
+        <n v="0.67730496453900713"/>
+        <n v="0.74045801526717558"/>
+        <n v="0.71969696969696972"/>
+        <n v="0.70114942528735635"/>
+        <n v="0.26859504132231404"/>
+        <n v="0.19702602230483271"/>
+        <n v="0.2808988764044944"/>
+        <n v="0.33210332103321033"/>
+        <n v="0.3881856540084388"/>
+        <n v="0.32653061224489793"/>
+        <n v="0.34782608695652173"/>
+        <n v="0.18047337278106509"/>
+        <n v="0.20192307692307693"/>
+        <n v="0.33734939759036142"/>
+        <n v="0.28352490421455939"/>
+        <n v="0.44776119402985076"/>
+        <n v="0.42499999999999999"/>
+        <n v="0.44961240310077522"/>
+        <n v="0.59863945578231292"/>
+        <n v="0.56737588652482274"/>
+        <n v="0.4713375796178344"/>
+        <n v="0.49305555555555558"/>
+        <n v="0.52439024390243905"/>
+        <n v="0.47239263803680981"/>
+        <n v="0.40697674418604651"/>
+        <n v="0.42944785276073622"/>
+        <n v="0.44278606965174128"/>
+        <n v="0.44864864864864867"/>
+        <n v="0.3108108108108108"/>
+        <n v="0.310126582278481"/>
+        <n v="0.27016129032258063"/>
+        <n v="0.32743362831858408"/>
+        <n v="0.30120481927710846"/>
+        <n v="0.31282051282051282"/>
+        <n v="0.32544378698224852"/>
+        <n v="0.29850746268656714"/>
+        <n v="0.25112107623318386"/>
+        <n v="0.33766233766233766"/>
+        <n v="0.40476190476190477"/>
+        <n v="0.50326797385620914"/>
+        <n v="0.35390946502057613"/>
+        <n v="0.5"/>
+        <n v="0.41919191919191917"/>
+        <n v="0.41558441558441561"/>
+        <n v="0.52742616033755274"/>
+        <n v="0.495"/>
+        <n v="0.51440329218106995"/>
+        <n v="0.48309178743961351"/>
+        <n v="0.38974358974358975"/>
+        <n v="0.41880341880341881"/>
+        <n v="0.43181818181818182"/>
+        <n v="0.52336448598130836"/>
+        <n v="0.53303964757709255"/>
+        <n v="0.50684931506849318"/>
+        <n v="0.52488687782805432"/>
+        <n v="0.51004016064257029"/>
+        <n v="0.50638297872340421"/>
+        <n v="0.57399103139013452"/>
+        <n v="0.44715447154471544"/>
+        <n v="0.52301255230125521"/>
+        <n v="0.59633027522935778"/>
+        <n v="0.59459459459459463"/>
+        <n v="0.57528957528957525"/>
+        <n v="0.65079365079365081"/>
+        <n v="0.64444444444444449"/>
+        <n v="0.65594855305466238"/>
+        <n v="0.66393442622950816"/>
+        <n v="0.6905829596412556"/>
+        <n v="0.70143884892086328"/>
+        <n v="0.63066202090592338"/>
+        <n v="0.40462427745664742"/>
+        <n v="0.4375"/>
+        <n v="0.42004773269689738"/>
+        <n v="0.40519480519480522"/>
+        <n v="0.32915360501567398"/>
+        <n v="0.46504559270516715"/>
+        <n v="0.51038575667655783"/>
+        <n v="0.46194225721784776"/>
+        <n v="0.29275362318840581"/>
+        <n v="0.35245901639344263"/>
+        <n v="0.35034013605442177"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Grad Rate Men" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.8787878787878782E-2" maxValue="0.95744680851063835"/>
+    </cacheField>
+    <cacheField name="Grad Rate Women" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="0.97560975609756095"/>
+    </cacheField>
+    <cacheField name="average" numFmtId="0" formula=" AVERAGE('Over All Grad Rate')" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="297">
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2021"/>
+    <n v="172"/>
+    <n v="89"/>
+    <n v="83"/>
+    <n v="0.51744186046511631"/>
+    <n v="0.48255813953488375"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="26"/>
+    <x v="0"/>
+    <n v="0.14606741573033707"/>
+    <n v="0.31325301204819278"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2020"/>
+    <n v="189"/>
+    <n v="74"/>
+    <n v="115"/>
+    <n v="0.39153439153439151"/>
+    <n v="0.60846560846560849"/>
+    <n v="36"/>
+    <n v="17"/>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="0.22972972972972974"/>
+    <n v="0.16521739130434782"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2019"/>
+    <n v="179"/>
+    <n v="68"/>
+    <n v="111"/>
+    <n v="0.37988826815642457"/>
+    <n v="0.62011173184357538"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="30"/>
+    <x v="2"/>
+    <n v="0.14705882352941177"/>
+    <n v="0.27027027027027029"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2018"/>
+    <n v="121"/>
+    <n v="43"/>
+    <n v="78"/>
+    <n v="0.35537190082644626"/>
+    <n v="0.64462809917355368"/>
+    <n v="38"/>
+    <n v="8"/>
+    <n v="30"/>
+    <x v="3"/>
+    <n v="0.18604651162790697"/>
+    <n v="0.38461538461538464"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2017"/>
+    <n v="179"/>
+    <n v="67"/>
+    <n v="112"/>
+    <n v="0.37430167597765363"/>
+    <n v="0.62569832402234637"/>
+    <n v="43"/>
+    <n v="10"/>
+    <n v="33"/>
+    <x v="4"/>
+    <n v="0.14925373134328357"/>
+    <n v="0.29464285714285715"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2016"/>
+    <n v="320"/>
+    <n v="116"/>
+    <n v="204"/>
+    <n v="0.36249999999999999"/>
+    <n v="0.63749999999999996"/>
+    <n v="59"/>
+    <n v="26"/>
+    <n v="33"/>
+    <x v="5"/>
+    <n v="0.22413793103448276"/>
+    <n v="0.16176470588235295"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2015"/>
+    <n v="241"/>
+    <n v="102"/>
+    <n v="139"/>
+    <n v="0.42323651452282157"/>
+    <n v="0.57676348547717837"/>
+    <n v="46"/>
+    <n v="18"/>
+    <n v="28"/>
+    <x v="6"/>
+    <n v="0.17647058823529413"/>
+    <n v="0.20143884892086331"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <n v="326"/>
+    <n v="140"/>
+    <n v="186"/>
+    <n v="0.42944785276073622"/>
+    <n v="0.57055214723926384"/>
+    <n v="92"/>
+    <n v="48"/>
+    <n v="44"/>
+    <x v="7"/>
+    <n v="0.34285714285714286"/>
+    <n v="0.23655913978494625"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2013"/>
+    <n v="245"/>
+    <n v="109"/>
+    <n v="136"/>
+    <n v="0.44489795918367347"/>
+    <n v="0.55510204081632653"/>
+    <n v="56"/>
+    <n v="22"/>
+    <n v="34"/>
+    <x v="8"/>
+    <n v="0.20183486238532111"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2012"/>
+    <n v="150"/>
+    <n v="85"/>
+    <n v="65"/>
+    <n v="0.56666666666666665"/>
+    <n v="0.43333333333333335"/>
+    <n v="32"/>
+    <n v="17"/>
+    <n v="15"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <n v="0.23076923076923078"/>
+  </r>
+  <r>
+    <n v="217624"/>
+    <x v="0"/>
+    <n v="2011"/>
+    <n v="205"/>
+    <n v="165"/>
+    <n v="40"/>
+    <n v="0.80487804878048785"/>
+    <n v="0.1951219512195122"/>
+    <n v="19"/>
+    <n v="13"/>
+    <n v="6"/>
+    <x v="10"/>
+    <n v="7.8787878787878782E-2"/>
+    <n v="0.15"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2021"/>
+    <n v="392"/>
+    <n v="194"/>
+    <n v="198"/>
+    <n v="0.49489795918367346"/>
+    <n v="0.50510204081632648"/>
+    <n v="288"/>
+    <n v="135"/>
+    <n v="153"/>
+    <x v="11"/>
+    <n v="0.69587628865979378"/>
+    <n v="0.77272727272727271"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2020"/>
+    <n v="299"/>
+    <n v="151"/>
+    <n v="148"/>
+    <n v="0.50501672240802675"/>
+    <n v="0.49498327759197325"/>
+    <n v="232"/>
+    <n v="113"/>
+    <n v="119"/>
+    <x v="12"/>
+    <n v="0.7483443708609272"/>
+    <n v="0.80405405405405406"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2019"/>
+    <n v="299"/>
+    <n v="126"/>
+    <n v="173"/>
+    <n v="0.42140468227424749"/>
+    <n v="0.57859531772575246"/>
+    <n v="224"/>
+    <n v="84"/>
+    <n v="140"/>
+    <x v="13"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.80924855491329484"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2018"/>
+    <n v="311"/>
+    <n v="133"/>
+    <n v="178"/>
+    <n v="0.42765273311897106"/>
+    <n v="0.57234726688102899"/>
+    <n v="247"/>
+    <n v="100"/>
+    <n v="147"/>
+    <x v="14"/>
+    <n v="0.75187969924812026"/>
+    <n v="0.8258426966292135"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2017"/>
+    <n v="315"/>
+    <n v="121"/>
+    <n v="194"/>
+    <n v="0.38412698412698415"/>
+    <n v="0.61587301587301591"/>
+    <n v="270"/>
+    <n v="93"/>
+    <n v="177"/>
+    <x v="15"/>
+    <n v="0.76859504132231404"/>
+    <n v="0.91237113402061853"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2016"/>
+    <n v="333"/>
+    <n v="142"/>
+    <n v="191"/>
+    <n v="0.42642642642642642"/>
+    <n v="0.57357357357357353"/>
+    <n v="244"/>
+    <n v="103"/>
+    <n v="141"/>
+    <x v="16"/>
+    <n v="0.72535211267605637"/>
+    <n v="0.73821989528795806"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2015"/>
+    <n v="332"/>
+    <n v="133"/>
+    <n v="199"/>
+    <n v="0.4006024096385542"/>
+    <n v="0.5993975903614458"/>
+    <n v="271"/>
+    <n v="106"/>
+    <n v="165"/>
+    <x v="17"/>
+    <n v="0.79699248120300747"/>
+    <n v="0.82914572864321612"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2014"/>
+    <n v="337"/>
+    <n v="155"/>
+    <n v="182"/>
+    <n v="0.4599406528189911"/>
+    <n v="0.5400593471810089"/>
+    <n v="271"/>
+    <n v="122"/>
+    <n v="149"/>
+    <x v="18"/>
+    <n v="0.7870967741935484"/>
+    <n v="0.81868131868131866"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2013"/>
+    <n v="325"/>
+    <n v="142"/>
+    <n v="183"/>
+    <n v="0.43692307692307691"/>
+    <n v="0.56307692307692303"/>
+    <n v="254"/>
+    <n v="112"/>
+    <n v="142"/>
+    <x v="19"/>
+    <n v="0.78873239436619713"/>
+    <n v="0.77595628415300544"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2012"/>
+    <n v="347"/>
+    <n v="140"/>
+    <n v="207"/>
+    <n v="0.40345821325648418"/>
+    <n v="0.59654178674351588"/>
+    <n v="272"/>
+    <n v="109"/>
+    <n v="163"/>
+    <x v="20"/>
+    <n v="0.77857142857142858"/>
+    <n v="0.7874396135265701"/>
+  </r>
+  <r>
+    <n v="238333"/>
+    <x v="1"/>
+    <n v="2011"/>
+    <n v="326"/>
+    <n v="128"/>
+    <n v="198"/>
+    <n v="0.39263803680981596"/>
+    <n v="0.6073619631901841"/>
+    <n v="247"/>
+    <n v="89"/>
+    <n v="158"/>
+    <x v="21"/>
+    <n v="0.6953125"/>
+    <n v="0.79797979797979801"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2021"/>
+    <n v="214"/>
+    <n v="69"/>
+    <n v="145"/>
+    <n v="0.32242990654205606"/>
+    <n v="0.67757009345794394"/>
+    <n v="145"/>
+    <n v="49"/>
+    <n v="96"/>
+    <x v="22"/>
+    <n v="0.71014492753623193"/>
+    <n v="0.66206896551724137"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2020"/>
+    <n v="191"/>
+    <n v="66"/>
+    <n v="125"/>
+    <n v="0.34554973821989526"/>
+    <n v="0.65445026178010468"/>
+    <n v="136"/>
+    <n v="48"/>
+    <n v="88"/>
+    <x v="23"/>
+    <n v="0.72727272727272729"/>
+    <n v="0.70399999999999996"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2019"/>
+    <n v="140"/>
+    <n v="41"/>
+    <n v="99"/>
+    <n v="0.29285714285714287"/>
+    <n v="0.70714285714285718"/>
+    <n v="107"/>
+    <n v="35"/>
+    <n v="72"/>
+    <x v="24"/>
+    <n v="0.85365853658536583"/>
+    <n v="0.72727272727272729"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2018"/>
+    <n v="197"/>
+    <n v="70"/>
+    <n v="127"/>
+    <n v="0.35532994923857869"/>
+    <n v="0.64467005076142136"/>
+    <n v="146"/>
+    <n v="50"/>
+    <n v="96"/>
+    <x v="25"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.75590551181102361"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2017"/>
+    <n v="212"/>
+    <n v="60"/>
+    <n v="152"/>
+    <n v="0.28301886792452829"/>
+    <n v="0.71698113207547165"/>
+    <n v="143"/>
+    <n v="43"/>
+    <n v="100"/>
+    <x v="26"/>
+    <n v="0.71666666666666667"/>
+    <n v="0.65789473684210531"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2016"/>
+    <n v="168"/>
+    <n v="54"/>
+    <n v="114"/>
+    <n v="0.32142857142857145"/>
+    <n v="0.6785714285714286"/>
+    <n v="118"/>
+    <n v="43"/>
+    <n v="75"/>
+    <x v="27"/>
+    <n v="0.79629629629629628"/>
+    <n v="0.65789473684210531"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2015"/>
+    <n v="198"/>
+    <n v="65"/>
+    <n v="133"/>
+    <n v="0.32828282828282829"/>
+    <n v="0.67171717171717171"/>
+    <n v="134"/>
+    <n v="49"/>
+    <n v="85"/>
+    <x v="28"/>
+    <n v="0.75384615384615383"/>
+    <n v="0.63909774436090228"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2014"/>
+    <n v="190"/>
+    <n v="66"/>
+    <n v="124"/>
+    <n v="0.3473684210526316"/>
+    <n v="0.65263157894736845"/>
+    <n v="128"/>
+    <n v="38"/>
+    <n v="90"/>
+    <x v="29"/>
+    <n v="0.5757575757575758"/>
+    <n v="0.72580645161290325"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2013"/>
+    <n v="204"/>
+    <n v="56"/>
+    <n v="148"/>
+    <n v="0.27450980392156865"/>
+    <n v="0.72549019607843135"/>
+    <n v="137"/>
+    <n v="40"/>
+    <n v="97"/>
+    <x v="30"/>
+    <n v="0.7142857142857143"/>
+    <n v="0.65540540540540537"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2012"/>
+    <n v="127"/>
+    <n v="39"/>
+    <n v="88"/>
+    <n v="0.30708661417322836"/>
+    <n v="0.69291338582677164"/>
+    <n v="81"/>
+    <n v="26"/>
+    <n v="55"/>
+    <x v="31"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.625"/>
+  </r>
+  <r>
+    <n v="230816"/>
+    <x v="2"/>
+    <n v="2011"/>
+    <n v="137"/>
+    <n v="42"/>
+    <n v="95"/>
+    <n v="0.30656934306569344"/>
+    <n v="0.69343065693430661"/>
+    <n v="92"/>
+    <n v="32"/>
+    <n v="60"/>
+    <x v="32"/>
+    <n v="0.76190476190476186"/>
+    <n v="0.63157894736842102"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2021"/>
+    <n v="134"/>
+    <n v="63"/>
+    <n v="71"/>
+    <n v="0.47014925373134331"/>
+    <n v="0.52985074626865669"/>
+    <n v="84"/>
+    <n v="39"/>
+    <n v="45"/>
+    <x v="33"/>
+    <n v="0.61904761904761907"/>
+    <n v="0.63380281690140849"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2020"/>
+    <n v="141"/>
+    <n v="66"/>
+    <n v="75"/>
+    <n v="0.46808510638297873"/>
+    <n v="0.53191489361702127"/>
+    <n v="87"/>
+    <n v="39"/>
+    <n v="48"/>
+    <x v="34"/>
+    <n v="0.59090909090909094"/>
+    <n v="0.64"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2019"/>
+    <n v="146"/>
+    <n v="66"/>
+    <n v="80"/>
+    <n v="0.45205479452054792"/>
+    <n v="0.54794520547945202"/>
+    <n v="79"/>
+    <n v="30"/>
+    <n v="49"/>
+    <x v="35"/>
+    <n v="0.45454545454545453"/>
+    <n v="0.61250000000000004"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2018"/>
+    <n v="136"/>
+    <n v="68"/>
+    <n v="68"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="75"/>
+    <n v="35"/>
+    <n v="40"/>
+    <x v="36"/>
+    <n v="0.51470588235294112"/>
+    <n v="0.58823529411764708"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2017"/>
+    <n v="162"/>
+    <n v="79"/>
+    <n v="83"/>
+    <n v="0.48765432098765432"/>
+    <n v="0.51234567901234573"/>
+    <n v="84"/>
+    <n v="40"/>
+    <n v="44"/>
+    <x v="37"/>
+    <n v="0.50632911392405067"/>
+    <n v="0.53012048192771088"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2016"/>
+    <n v="165"/>
+    <n v="75"/>
+    <n v="90"/>
+    <n v="0.45454545454545453"/>
+    <n v="0.54545454545454541"/>
+    <n v="90"/>
+    <n v="37"/>
+    <n v="53"/>
+    <x v="38"/>
+    <n v="0.49333333333333335"/>
+    <n v="0.58888888888888891"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2015"/>
+    <n v="166"/>
+    <n v="59"/>
+    <n v="107"/>
+    <n v="0.35542168674698793"/>
+    <n v="0.64457831325301207"/>
+    <n v="82"/>
+    <n v="25"/>
+    <n v="57"/>
+    <x v="39"/>
+    <n v="0.42372881355932202"/>
+    <n v="0.53271028037383172"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2014"/>
+    <n v="181"/>
+    <n v="76"/>
+    <n v="105"/>
+    <n v="0.41988950276243092"/>
+    <n v="0.58011049723756902"/>
+    <n v="99"/>
+    <n v="39"/>
+    <n v="60"/>
+    <x v="40"/>
+    <n v="0.51315789473684215"/>
+    <n v="0.5714285714285714"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2013"/>
+    <n v="176"/>
+    <n v="59"/>
+    <n v="117"/>
+    <n v="0.33522727272727271"/>
+    <n v="0.66477272727272729"/>
+    <n v="87"/>
+    <n v="34"/>
+    <n v="53"/>
+    <x v="41"/>
+    <n v="0.57627118644067798"/>
+    <n v="0.45299145299145299"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2012"/>
+    <n v="176"/>
+    <n v="63"/>
+    <n v="113"/>
+    <n v="0.35795454545454547"/>
+    <n v="0.64204545454545459"/>
+    <n v="90"/>
+    <n v="34"/>
+    <n v="56"/>
+    <x v="42"/>
+    <n v="0.53968253968253965"/>
+    <n v="0.49557522123893805"/>
+  </r>
+  <r>
+    <n v="173142"/>
+    <x v="3"/>
+    <n v="2011"/>
+    <n v="162"/>
+    <n v="76"/>
+    <n v="86"/>
+    <n v="0.46913580246913578"/>
+    <n v="0.53086419753086422"/>
+    <n v="82"/>
+    <n v="39"/>
+    <n v="43"/>
+    <x v="43"/>
+    <n v="0.51315789473684215"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2021"/>
+    <n v="157"/>
+    <n v="72"/>
+    <n v="85"/>
+    <n v="0.45859872611464969"/>
+    <n v="0.54140127388535031"/>
+    <n v="89"/>
+    <n v="30"/>
+    <n v="59"/>
+    <x v="44"/>
+    <n v="0.41666666666666669"/>
+    <n v="0.69411764705882351"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2020"/>
+    <n v="140"/>
+    <n v="58"/>
+    <n v="82"/>
+    <n v="0.41428571428571431"/>
+    <n v="0.58571428571428574"/>
+    <n v="78"/>
+    <n v="31"/>
+    <n v="47"/>
+    <x v="45"/>
+    <n v="0.53448275862068961"/>
+    <n v="0.57317073170731703"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2019"/>
+    <n v="127"/>
+    <n v="56"/>
+    <n v="71"/>
+    <n v="0.44094488188976377"/>
+    <n v="0.55905511811023623"/>
+    <n v="75"/>
+    <n v="28"/>
+    <n v="47"/>
+    <x v="46"/>
+    <n v="0.5"/>
+    <n v="0.6619718309859155"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2018"/>
+    <n v="158"/>
+    <n v="61"/>
+    <n v="97"/>
+    <n v="0.38607594936708861"/>
+    <n v="0.61392405063291144"/>
+    <n v="95"/>
+    <n v="32"/>
+    <n v="63"/>
+    <x v="47"/>
+    <n v="0.52459016393442626"/>
+    <n v="0.64948453608247425"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2017"/>
+    <n v="240"/>
+    <n v="114"/>
+    <n v="126"/>
+    <n v="0.47499999999999998"/>
+    <n v="0.52500000000000002"/>
+    <n v="116"/>
+    <n v="53"/>
+    <n v="63"/>
+    <x v="48"/>
+    <n v="0.46491228070175439"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2016"/>
+    <n v="192"/>
+    <n v="88"/>
+    <n v="104"/>
+    <n v="0.45833333333333331"/>
+    <n v="0.54166666666666663"/>
+    <n v="90"/>
+    <n v="34"/>
+    <n v="56"/>
+    <x v="49"/>
+    <n v="0.38636363636363635"/>
+    <n v="0.53846153846153844"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2015"/>
+    <n v="278"/>
+    <n v="116"/>
+    <n v="162"/>
+    <n v="0.41726618705035973"/>
+    <n v="0.58273381294964033"/>
+    <n v="152"/>
+    <n v="61"/>
+    <n v="91"/>
+    <x v="50"/>
+    <n v="0.52586206896551724"/>
+    <n v="0.56172839506172845"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2014"/>
+    <n v="246"/>
+    <n v="98"/>
+    <n v="148"/>
+    <n v="0.3983739837398374"/>
+    <n v="0.60162601626016265"/>
+    <n v="128"/>
+    <n v="49"/>
+    <n v="79"/>
+    <x v="51"/>
+    <n v="0.5"/>
+    <n v="0.53378378378378377"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2013"/>
+    <n v="200"/>
+    <n v="86"/>
+    <n v="114"/>
+    <n v="0.43"/>
+    <n v="0.56999999999999995"/>
+    <n v="118"/>
+    <n v="45"/>
+    <n v="73"/>
+    <x v="52"/>
+    <n v="0.52325581395348841"/>
+    <n v="0.64035087719298245"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2012"/>
+    <n v="241"/>
+    <n v="105"/>
+    <n v="136"/>
+    <n v="0.43568464730290457"/>
+    <n v="0.56431535269709543"/>
+    <n v="134"/>
+    <n v="60"/>
+    <n v="74"/>
+    <x v="53"/>
+    <n v="0.5714285714285714"/>
+    <n v="0.54411764705882348"/>
+  </r>
+  <r>
+    <n v="158477"/>
+    <x v="4"/>
+    <n v="2011"/>
+    <n v="232"/>
+    <n v="87"/>
+    <n v="145"/>
+    <n v="0.375"/>
+    <n v="0.625"/>
+    <n v="135"/>
+    <n v="45"/>
+    <n v="90"/>
+    <x v="54"/>
+    <n v="0.51724137931034486"/>
+    <n v="0.62068965517241381"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2021"/>
+    <n v="276"/>
+    <n v="152"/>
+    <n v="124"/>
+    <n v="0.55072463768115942"/>
+    <n v="0.44927536231884058"/>
+    <n v="176"/>
+    <n v="90"/>
+    <n v="86"/>
+    <x v="55"/>
+    <n v="0.59210526315789469"/>
+    <n v="0.69354838709677424"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2020"/>
+    <n v="261"/>
+    <n v="129"/>
+    <n v="132"/>
+    <n v="0.4942528735632184"/>
+    <n v="0.50574712643678166"/>
+    <n v="176"/>
+    <n v="82"/>
+    <n v="94"/>
+    <x v="56"/>
+    <n v="0.63565891472868219"/>
+    <n v="0.71212121212121215"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2019"/>
+    <n v="270"/>
+    <n v="124"/>
+    <n v="146"/>
+    <n v="0.45925925925925926"/>
+    <n v="0.54074074074074074"/>
+    <n v="186"/>
+    <n v="82"/>
+    <n v="104"/>
+    <x v="57"/>
+    <n v="0.66129032258064513"/>
+    <n v="0.71232876712328763"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2018"/>
+    <n v="302"/>
+    <n v="140"/>
+    <n v="162"/>
+    <n v="0.46357615894039733"/>
+    <n v="0.53642384105960261"/>
+    <n v="229"/>
+    <n v="104"/>
+    <n v="125"/>
+    <x v="58"/>
+    <n v="0.74285714285714288"/>
+    <n v="0.77160493827160492"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2017"/>
+    <n v="338"/>
+    <n v="151"/>
+    <n v="187"/>
+    <n v="0.44674556213017752"/>
+    <n v="0.55325443786982254"/>
+    <n v="240"/>
+    <n v="96"/>
+    <n v="144"/>
+    <x v="59"/>
+    <n v="0.63576158940397354"/>
+    <n v="0.77005347593582885"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2016"/>
+    <n v="343"/>
+    <n v="155"/>
+    <n v="188"/>
+    <n v="0.45189504373177841"/>
+    <n v="0.54810495626822153"/>
+    <n v="233"/>
+    <n v="106"/>
+    <n v="127"/>
+    <x v="60"/>
+    <n v="0.68387096774193545"/>
+    <n v="0.67553191489361697"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2015"/>
+    <n v="335"/>
+    <n v="157"/>
+    <n v="178"/>
+    <n v="0.46865671641791046"/>
+    <n v="0.5313432835820896"/>
+    <n v="228"/>
+    <n v="99"/>
+    <n v="129"/>
+    <x v="61"/>
+    <n v="0.63057324840764328"/>
+    <n v="0.7247191011235955"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2014"/>
+    <n v="341"/>
+    <n v="167"/>
+    <n v="174"/>
+    <n v="0.48973607038123168"/>
+    <n v="0.51026392961876832"/>
+    <n v="224"/>
+    <n v="104"/>
+    <n v="120"/>
+    <x v="62"/>
+    <n v="0.6227544910179641"/>
+    <n v="0.68965517241379315"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2013"/>
+    <n v="316"/>
+    <n v="157"/>
+    <n v="159"/>
+    <n v="0.49683544303797467"/>
+    <n v="0.50316455696202533"/>
+    <n v="214"/>
+    <n v="98"/>
+    <n v="116"/>
+    <x v="63"/>
+    <n v="0.62420382165605093"/>
+    <n v="0.72955974842767291"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2012"/>
+    <n v="247"/>
+    <n v="116"/>
+    <n v="131"/>
+    <n v="0.46963562753036436"/>
+    <n v="0.53036437246963564"/>
+    <n v="175"/>
+    <n v="82"/>
+    <n v="93"/>
+    <x v="64"/>
+    <n v="0.7068965517241379"/>
+    <n v="0.70992366412213737"/>
+  </r>
+  <r>
+    <n v="153162"/>
+    <x v="5"/>
+    <n v="2011"/>
+    <n v="319"/>
+    <n v="161"/>
+    <n v="158"/>
+    <n v="0.50470219435736674"/>
+    <n v="0.4952978056426332"/>
+    <n v="223"/>
+    <n v="113"/>
+    <n v="110"/>
+    <x v="65"/>
+    <n v="0.70186335403726707"/>
+    <n v="0.69620253164556967"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2021"/>
+    <n v="258"/>
+    <n v="118"/>
+    <n v="140"/>
+    <n v="0.4573643410852713"/>
+    <n v="0.54263565891472865"/>
+    <n v="188"/>
+    <n v="84"/>
+    <n v="104"/>
+    <x v="66"/>
+    <n v="0.71186440677966101"/>
+    <n v="0.74285714285714288"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2020"/>
+    <n v="265"/>
+    <n v="115"/>
+    <n v="150"/>
+    <n v="0.43396226415094341"/>
+    <n v="0.56603773584905659"/>
+    <n v="179"/>
+    <n v="72"/>
+    <n v="107"/>
+    <x v="67"/>
+    <n v="0.62608695652173918"/>
+    <n v="0.71333333333333337"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2019"/>
+    <n v="295"/>
+    <n v="129"/>
+    <n v="166"/>
+    <n v="0.43728813559322033"/>
+    <n v="0.56271186440677967"/>
+    <n v="191"/>
+    <n v="78"/>
+    <n v="113"/>
+    <x v="68"/>
+    <n v="0.60465116279069764"/>
+    <n v="0.68072289156626509"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2018"/>
+    <n v="268"/>
+    <n v="111"/>
+    <n v="157"/>
+    <n v="0.41417910447761191"/>
+    <n v="0.58582089552238803"/>
+    <n v="189"/>
+    <n v="67"/>
+    <n v="122"/>
+    <x v="69"/>
+    <n v="0.60360360360360366"/>
+    <n v="0.77707006369426757"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2017"/>
+    <n v="285"/>
+    <n v="136"/>
+    <n v="149"/>
+    <n v="0.47719298245614034"/>
+    <n v="0.52280701754385961"/>
+    <n v="198"/>
+    <n v="87"/>
+    <n v="111"/>
+    <x v="70"/>
+    <n v="0.63970588235294112"/>
+    <n v="0.74496644295302017"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2016"/>
+    <n v="269"/>
+    <n v="138"/>
+    <n v="131"/>
+    <n v="0.51301115241635686"/>
+    <n v="0.48698884758364314"/>
+    <n v="181"/>
+    <n v="82"/>
+    <n v="99"/>
+    <x v="71"/>
+    <n v="0.59420289855072461"/>
+    <n v="0.75572519083969469"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2015"/>
+    <n v="277"/>
+    <n v="119"/>
+    <n v="158"/>
+    <n v="0.4296028880866426"/>
+    <n v="0.5703971119133574"/>
+    <n v="177"/>
+    <n v="73"/>
+    <n v="104"/>
+    <x v="72"/>
+    <n v="0.61344537815126055"/>
+    <n v="0.65822784810126578"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2014"/>
+    <n v="267"/>
+    <n v="118"/>
+    <n v="149"/>
+    <n v="0.44194756554307119"/>
+    <n v="0.55805243445692887"/>
+    <n v="151"/>
+    <n v="62"/>
+    <n v="89"/>
+    <x v="73"/>
+    <n v="0.52542372881355937"/>
+    <n v="0.59731543624161076"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2013"/>
+    <n v="291"/>
+    <n v="128"/>
+    <n v="163"/>
+    <n v="0.43986254295532645"/>
+    <n v="0.56013745704467355"/>
+    <n v="169"/>
+    <n v="69"/>
+    <n v="100"/>
+    <x v="74"/>
+    <n v="0.5390625"/>
+    <n v="0.61349693251533743"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2012"/>
+    <n v="297"/>
+    <n v="131"/>
+    <n v="166"/>
+    <n v="0.44107744107744107"/>
+    <n v="0.55892255892255893"/>
+    <n v="180"/>
+    <n v="72"/>
+    <n v="108"/>
+    <x v="75"/>
+    <n v="0.54961832061068705"/>
+    <n v="0.6506024096385542"/>
+  </r>
+  <r>
+    <n v="139393"/>
+    <x v="6"/>
+    <n v="2011"/>
+    <n v="270"/>
+    <n v="132"/>
+    <n v="138"/>
+    <n v="0.48888888888888887"/>
+    <n v="0.51111111111111107"/>
+    <n v="139"/>
+    <n v="59"/>
+    <n v="80"/>
+    <x v="76"/>
+    <n v="0.44696969696969696"/>
+    <n v="0.57971014492753625"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2021"/>
+    <n v="252"/>
+    <n v="107"/>
+    <n v="145"/>
+    <n v="0.42460317460317459"/>
+    <n v="0.57539682539682535"/>
+    <n v="183"/>
+    <n v="76"/>
+    <n v="107"/>
+    <x v="77"/>
+    <n v="0.71028037383177567"/>
+    <n v="0.73793103448275865"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2020"/>
+    <n v="270"/>
+    <n v="135"/>
+    <n v="135"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="182"/>
+    <n v="87"/>
+    <n v="95"/>
+    <x v="78"/>
+    <n v="0.64444444444444449"/>
+    <n v="0.70370370370370372"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2019"/>
+    <n v="253"/>
+    <n v="112"/>
+    <n v="141"/>
+    <n v="0.44268774703557312"/>
+    <n v="0.55731225296442688"/>
+    <n v="162"/>
+    <n v="62"/>
+    <n v="100"/>
+    <x v="79"/>
+    <n v="0.5535714285714286"/>
+    <n v="0.70921985815602839"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2018"/>
+    <n v="285"/>
+    <n v="123"/>
+    <n v="162"/>
+    <n v="0.43157894736842106"/>
+    <n v="0.56842105263157894"/>
+    <n v="182"/>
+    <n v="66"/>
+    <n v="116"/>
+    <x v="80"/>
+    <n v="0.53658536585365857"/>
+    <n v="0.71604938271604934"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2017"/>
+    <n v="233"/>
+    <n v="105"/>
+    <n v="128"/>
+    <n v="0.45064377682403434"/>
+    <n v="0.54935622317596566"/>
+    <n v="159"/>
+    <n v="69"/>
+    <n v="90"/>
+    <x v="81"/>
+    <n v="0.65714285714285714"/>
+    <n v="0.703125"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2016"/>
+    <n v="339"/>
+    <n v="154"/>
+    <n v="185"/>
+    <n v="0.45427728613569324"/>
+    <n v="0.54572271386430682"/>
+    <n v="239"/>
+    <n v="103"/>
+    <n v="136"/>
+    <x v="82"/>
+    <n v="0.66883116883116878"/>
+    <n v="0.73513513513513518"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2015"/>
+    <n v="288"/>
+    <n v="125"/>
+    <n v="163"/>
+    <n v="0.43402777777777779"/>
+    <n v="0.56597222222222221"/>
+    <n v="194"/>
+    <n v="74"/>
+    <n v="120"/>
+    <x v="83"/>
+    <n v="0.59199999999999997"/>
+    <n v="0.73619631901840488"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2014"/>
+    <n v="323"/>
+    <n v="144"/>
+    <n v="179"/>
+    <n v="0.44582043343653249"/>
+    <n v="0.55417956656346745"/>
+    <n v="231"/>
+    <n v="96"/>
+    <n v="135"/>
+    <x v="84"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.75418994413407825"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2013"/>
+    <n v="300"/>
+    <n v="146"/>
+    <n v="154"/>
+    <n v="0.48666666666666669"/>
+    <n v="0.51333333333333331"/>
+    <n v="213"/>
+    <n v="97"/>
+    <n v="116"/>
+    <x v="85"/>
+    <n v="0.66438356164383561"/>
+    <n v="0.75324675324675328"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2012"/>
+    <n v="299"/>
+    <n v="141"/>
+    <n v="158"/>
+    <n v="0.47157190635451507"/>
+    <n v="0.52842809364548493"/>
+    <n v="214"/>
+    <n v="94"/>
+    <n v="120"/>
+    <x v="86"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.759493670886076"/>
+  </r>
+  <r>
+    <n v="150455"/>
+    <x v="7"/>
+    <n v="2011"/>
+    <n v="323"/>
+    <n v="131"/>
+    <n v="192"/>
+    <n v="0.40557275541795668"/>
+    <n v="0.59442724458204332"/>
+    <n v="214"/>
+    <n v="78"/>
+    <n v="136"/>
+    <x v="87"/>
+    <n v="0.59541984732824427"/>
+    <n v="0.70833333333333337"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2021"/>
+    <n v="208"/>
+    <n v="54"/>
+    <n v="154"/>
+    <n v="0.25961538461538464"/>
+    <n v="0.74038461538461542"/>
+    <n v="95"/>
+    <n v="22"/>
+    <n v="73"/>
+    <x v="88"/>
+    <n v="0.40740740740740738"/>
+    <n v="0.47402597402597402"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2020"/>
+    <n v="196"/>
+    <n v="71"/>
+    <n v="125"/>
+    <n v="0.36224489795918369"/>
+    <n v="0.63775510204081631"/>
+    <n v="99"/>
+    <n v="25"/>
+    <n v="74"/>
+    <x v="89"/>
+    <n v="0.352112676056338"/>
+    <n v="0.59199999999999997"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2019"/>
+    <n v="207"/>
+    <n v="64"/>
+    <n v="143"/>
+    <n v="0.30917874396135264"/>
+    <n v="0.6908212560386473"/>
+    <n v="104"/>
+    <n v="32"/>
+    <n v="72"/>
+    <x v="90"/>
+    <n v="0.5"/>
+    <n v="0.50349650349650354"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2018"/>
+    <n v="174"/>
+    <n v="66"/>
+    <n v="108"/>
+    <n v="0.37931034482758619"/>
+    <n v="0.62068965517241381"/>
+    <n v="77"/>
+    <n v="22"/>
+    <n v="55"/>
+    <x v="91"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.5092592592592593"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2017"/>
+    <n v="116"/>
+    <n v="33"/>
+    <n v="83"/>
+    <n v="0.28448275862068967"/>
+    <n v="0.71551724137931039"/>
+    <n v="60"/>
+    <n v="11"/>
+    <n v="49"/>
+    <x v="92"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.59036144578313254"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2016"/>
+    <n v="163"/>
+    <n v="61"/>
+    <n v="102"/>
+    <n v="0.37423312883435583"/>
+    <n v="0.62576687116564422"/>
+    <n v="72"/>
+    <n v="19"/>
+    <n v="53"/>
+    <x v="93"/>
+    <n v="0.31147540983606559"/>
+    <n v="0.51960784313725494"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2015"/>
+    <n v="89"/>
+    <n v="31"/>
+    <n v="58"/>
+    <n v="0.34831460674157305"/>
+    <n v="0.651685393258427"/>
+    <n v="47"/>
+    <n v="13"/>
+    <n v="34"/>
+    <x v="94"/>
+    <n v="0.41935483870967744"/>
+    <n v="0.58620689655172409"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2014"/>
+    <n v="107"/>
+    <n v="36"/>
+    <n v="71"/>
+    <n v="0.3364485981308411"/>
+    <n v="0.66355140186915884"/>
+    <n v="43"/>
+    <n v="10"/>
+    <n v="33"/>
+    <x v="95"/>
+    <n v="0.27777777777777779"/>
+    <n v="0.46478873239436619"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2013"/>
+    <n v="161"/>
+    <n v="54"/>
+    <n v="107"/>
+    <n v="0.33540372670807456"/>
+    <n v="0.6645962732919255"/>
+    <n v="84"/>
+    <n v="24"/>
+    <n v="60"/>
+    <x v="96"/>
+    <n v="0.44444444444444442"/>
+    <n v="0.56074766355140182"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2012"/>
+    <n v="261"/>
+    <n v="73"/>
+    <n v="188"/>
+    <n v="0.27969348659003829"/>
+    <n v="0.72030651340996166"/>
+    <n v="140"/>
+    <n v="41"/>
+    <n v="99"/>
+    <x v="97"/>
+    <n v="0.56164383561643838"/>
+    <n v="0.52659574468085102"/>
+  </r>
+  <r>
+    <n v="220181"/>
+    <x v="8"/>
+    <n v="2011"/>
+    <n v="212"/>
+    <n v="56"/>
+    <n v="156"/>
+    <n v="0.26415094339622641"/>
+    <n v="0.73584905660377353"/>
+    <n v="96"/>
+    <n v="24"/>
+    <n v="72"/>
+    <x v="98"/>
+    <n v="0.42857142857142855"/>
+    <n v="0.46153846153846156"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2021"/>
+    <n v="289"/>
+    <n v="148"/>
+    <n v="141"/>
+    <n v="0.51211072664359858"/>
+    <n v="0.48788927335640137"/>
+    <n v="177"/>
+    <n v="81"/>
+    <n v="96"/>
+    <x v="99"/>
+    <n v="0.54729729729729726"/>
+    <n v="0.68085106382978722"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2020"/>
+    <n v="327"/>
+    <n v="140"/>
+    <n v="187"/>
+    <n v="0.42813455657492355"/>
+    <n v="0.5718654434250765"/>
+    <n v="207"/>
+    <n v="84"/>
+    <n v="123"/>
+    <x v="100"/>
+    <n v="0.6"/>
+    <n v="0.65775401069518713"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2019"/>
+    <n v="272"/>
+    <n v="135"/>
+    <n v="137"/>
+    <n v="0.49632352941176472"/>
+    <n v="0.50367647058823528"/>
+    <n v="178"/>
+    <n v="75"/>
+    <n v="103"/>
+    <x v="101"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.75182481751824815"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2018"/>
+    <n v="286"/>
+    <n v="142"/>
+    <n v="144"/>
+    <n v="0.49650349650349651"/>
+    <n v="0.50349650349650354"/>
+    <n v="174"/>
+    <n v="76"/>
+    <n v="98"/>
+    <x v="102"/>
+    <n v="0.53521126760563376"/>
+    <n v="0.68055555555555558"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2017"/>
+    <n v="274"/>
+    <n v="158"/>
+    <n v="116"/>
+    <n v="0.57664233576642332"/>
+    <n v="0.42335766423357662"/>
+    <n v="169"/>
+    <n v="85"/>
+    <n v="84"/>
+    <x v="103"/>
+    <n v="0.53797468354430378"/>
+    <n v="0.72413793103448276"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2016"/>
+    <n v="289"/>
+    <n v="150"/>
+    <n v="139"/>
+    <n v="0.51903114186851207"/>
+    <n v="0.48096885813148788"/>
+    <n v="190"/>
+    <n v="99"/>
+    <n v="91"/>
+    <x v="104"/>
+    <n v="0.66"/>
+    <n v="0.65467625899280579"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2015"/>
+    <n v="307"/>
+    <n v="147"/>
+    <n v="160"/>
+    <n v="0.47882736156351791"/>
+    <n v="0.52117263843648209"/>
+    <n v="184"/>
+    <n v="70"/>
+    <n v="114"/>
+    <x v="105"/>
+    <n v="0.47619047619047616"/>
+    <n v="0.71250000000000002"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2014"/>
+    <n v="319"/>
+    <n v="168"/>
+    <n v="151"/>
+    <n v="0.52664576802507834"/>
+    <n v="0.47335423197492166"/>
+    <n v="195"/>
+    <n v="95"/>
+    <n v="100"/>
+    <x v="106"/>
+    <n v="0.56547619047619047"/>
+    <n v="0.66225165562913912"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2013"/>
+    <n v="352"/>
+    <n v="184"/>
+    <n v="168"/>
+    <n v="0.52272727272727271"/>
+    <n v="0.47727272727272729"/>
+    <n v="201"/>
+    <n v="85"/>
+    <n v="116"/>
+    <x v="107"/>
+    <n v="0.46195652173913043"/>
+    <n v="0.69047619047619047"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2012"/>
+    <n v="273"/>
+    <n v="133"/>
+    <n v="140"/>
+    <n v="0.48717948717948717"/>
+    <n v="0.51282051282051277"/>
+    <n v="165"/>
+    <n v="80"/>
+    <n v="85"/>
+    <x v="108"/>
+    <n v="0.60150375939849621"/>
+    <n v="0.6071428571428571"/>
+  </r>
+  <r>
+    <n v="150604"/>
+    <x v="9"/>
+    <n v="2011"/>
+    <n v="273"/>
+    <n v="152"/>
+    <n v="121"/>
+    <n v="0.5567765567765568"/>
+    <n v="0.4432234432234432"/>
+    <n v="150"/>
+    <n v="78"/>
+    <n v="72"/>
+    <x v="109"/>
+    <n v="0.51315789473684215"/>
+    <n v="0.5950413223140496"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2021"/>
+    <n v="304"/>
+    <n v="140"/>
+    <n v="164"/>
+    <n v="0.46052631578947367"/>
+    <n v="0.53947368421052633"/>
+    <n v="193"/>
+    <n v="79"/>
+    <n v="114"/>
+    <x v="110"/>
+    <n v="0.56428571428571428"/>
+    <n v="0.69512195121951215"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2020"/>
+    <n v="293"/>
+    <n v="127"/>
+    <n v="166"/>
+    <n v="0.43344709897610922"/>
+    <n v="0.56655290102389078"/>
+    <n v="210"/>
+    <n v="85"/>
+    <n v="125"/>
+    <x v="111"/>
+    <n v="0.6692913385826772"/>
+    <n v="0.75301204819277112"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2019"/>
+    <n v="334"/>
+    <n v="136"/>
+    <n v="198"/>
+    <n v="0.40718562874251496"/>
+    <n v="0.59281437125748504"/>
+    <n v="231"/>
+    <n v="84"/>
+    <n v="147"/>
+    <x v="112"/>
+    <n v="0.61764705882352944"/>
+    <n v="0.74242424242424243"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2018"/>
+    <n v="372"/>
+    <n v="146"/>
+    <n v="226"/>
+    <n v="0.39247311827956988"/>
+    <n v="0.60752688172043012"/>
+    <n v="266"/>
+    <n v="98"/>
+    <n v="168"/>
+    <x v="113"/>
+    <n v="0.67123287671232879"/>
+    <n v="0.74336283185840712"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2017"/>
+    <n v="321"/>
+    <n v="155"/>
+    <n v="166"/>
+    <n v="0.48286604361370716"/>
+    <n v="0.51713395638629278"/>
+    <n v="228"/>
+    <n v="109"/>
+    <n v="119"/>
+    <x v="114"/>
+    <n v="0.70322580645161292"/>
+    <n v="0.7168674698795181"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2016"/>
+    <n v="320"/>
+    <n v="157"/>
+    <n v="163"/>
+    <n v="0.49062499999999998"/>
+    <n v="0.50937500000000002"/>
+    <n v="226"/>
+    <n v="104"/>
+    <n v="122"/>
+    <x v="115"/>
+    <n v="0.66242038216560506"/>
+    <n v="0.74846625766871167"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2015"/>
+    <n v="293"/>
+    <n v="142"/>
+    <n v="151"/>
+    <n v="0.48464163822525597"/>
+    <n v="0.51535836177474403"/>
+    <n v="197"/>
+    <n v="91"/>
+    <n v="106"/>
+    <x v="116"/>
+    <n v="0.64084507042253525"/>
+    <n v="0.70198675496688745"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2014"/>
+    <n v="328"/>
+    <n v="139"/>
+    <n v="189"/>
+    <n v="0.42378048780487804"/>
+    <n v="0.57621951219512191"/>
+    <n v="225"/>
+    <n v="85"/>
+    <n v="140"/>
+    <x v="117"/>
+    <n v="0.61151079136690645"/>
+    <n v="0.7407407407407407"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2013"/>
+    <n v="231"/>
+    <n v="99"/>
+    <n v="132"/>
+    <n v="0.42857142857142855"/>
+    <n v="0.5714285714285714"/>
+    <n v="166"/>
+    <n v="65"/>
+    <n v="101"/>
+    <x v="118"/>
+    <n v="0.65656565656565657"/>
+    <n v="0.76515151515151514"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2012"/>
+    <n v="230"/>
+    <n v="120"/>
+    <n v="110"/>
+    <n v="0.52173913043478259"/>
+    <n v="0.47826086956521741"/>
+    <n v="150"/>
+    <n v="78"/>
+    <n v="72"/>
+    <x v="119"/>
+    <n v="0.65"/>
+    <n v="0.65454545454545454"/>
+  </r>
+  <r>
+    <n v="150756"/>
+    <x v="10"/>
+    <n v="2011"/>
+    <n v="265"/>
+    <n v="110"/>
+    <n v="155"/>
+    <n v="0.41509433962264153"/>
+    <n v="0.58490566037735847"/>
+    <n v="188"/>
+    <n v="76"/>
+    <n v="112"/>
+    <x v="120"/>
+    <n v="0.69090909090909092"/>
+    <n v="0.72258064516129028"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2021"/>
+    <n v="214"/>
+    <n v="114"/>
+    <n v="100"/>
+    <n v="0.53271028037383172"/>
+    <n v="0.46728971962616822"/>
+    <n v="202"/>
+    <n v="106"/>
+    <n v="96"/>
+    <x v="121"/>
+    <n v="0.92982456140350878"/>
+    <n v="0.96"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2020"/>
+    <n v="192"/>
+    <n v="101"/>
+    <n v="91"/>
+    <n v="0.52604166666666663"/>
+    <n v="0.47395833333333331"/>
+    <n v="178"/>
+    <n v="93"/>
+    <n v="85"/>
+    <x v="122"/>
+    <n v="0.92079207920792083"/>
+    <n v="0.93406593406593408"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2019"/>
+    <n v="216"/>
+    <n v="114"/>
+    <n v="102"/>
+    <n v="0.52777777777777779"/>
+    <n v="0.47222222222222221"/>
+    <n v="198"/>
+    <n v="107"/>
+    <n v="91"/>
+    <x v="123"/>
+    <n v="0.93859649122807021"/>
+    <n v="0.89215686274509809"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2018"/>
+    <n v="198"/>
+    <n v="103"/>
+    <n v="95"/>
+    <n v="0.52020202020202022"/>
+    <n v="0.47979797979797978"/>
+    <n v="182"/>
+    <n v="93"/>
+    <n v="89"/>
+    <x v="124"/>
+    <n v="0.90291262135922334"/>
+    <n v="0.93684210526315792"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2017"/>
+    <n v="194"/>
+    <n v="112"/>
+    <n v="82"/>
+    <n v="0.57731958762886593"/>
+    <n v="0.42268041237113402"/>
+    <n v="186"/>
+    <n v="106"/>
+    <n v="80"/>
+    <x v="125"/>
+    <n v="0.9464285714285714"/>
+    <n v="0.97560975609756095"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2016"/>
+    <n v="194"/>
+    <n v="94"/>
+    <n v="100"/>
+    <n v="0.4845360824742268"/>
+    <n v="0.51546391752577314"/>
+    <n v="181"/>
+    <n v="90"/>
+    <n v="91"/>
+    <x v="126"/>
+    <n v="0.95744680851063835"/>
+    <n v="0.91"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2015"/>
+    <n v="207"/>
+    <n v="134"/>
+    <n v="73"/>
+    <n v="0.64734299516908211"/>
+    <n v="0.35265700483091789"/>
+    <n v="190"/>
+    <n v="124"/>
+    <n v="66"/>
+    <x v="127"/>
+    <n v="0.92537313432835822"/>
+    <n v="0.90410958904109584"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2014"/>
+    <n v="202"/>
+    <n v="122"/>
+    <n v="80"/>
+    <n v="0.60396039603960394"/>
+    <n v="0.39603960396039606"/>
+    <n v="182"/>
+    <n v="112"/>
+    <n v="70"/>
+    <x v="128"/>
+    <n v="0.91803278688524592"/>
+    <n v="0.875"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2013"/>
+    <n v="196"/>
+    <n v="112"/>
+    <n v="84"/>
+    <n v="0.5714285714285714"/>
+    <n v="0.42857142857142855"/>
+    <n v="178"/>
+    <n v="102"/>
+    <n v="76"/>
+    <x v="129"/>
+    <n v="0.9107142857142857"/>
+    <n v="0.90476190476190477"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2012"/>
+    <n v="180"/>
+    <n v="135"/>
+    <n v="45"/>
+    <n v="0.75"/>
+    <n v="0.25"/>
+    <n v="159"/>
+    <n v="121"/>
+    <n v="38"/>
+    <x v="130"/>
+    <n v="0.89629629629629626"/>
+    <n v="0.84444444444444444"/>
+  </r>
+  <r>
+    <n v="115409"/>
+    <x v="11"/>
+    <n v="2011"/>
+    <n v="195"/>
+    <n v="125"/>
+    <n v="70"/>
+    <n v="0.64102564102564108"/>
+    <n v="0.35897435897435898"/>
+    <n v="164"/>
+    <n v="110"/>
+    <n v="54"/>
+    <x v="131"/>
+    <n v="0.88"/>
+    <n v="0.77142857142857146"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2021"/>
+    <n v="243"/>
+    <n v="93"/>
+    <n v="150"/>
+    <n v="0.38271604938271603"/>
+    <n v="0.61728395061728392"/>
+    <n v="157"/>
+    <n v="54"/>
+    <n v="103"/>
+    <x v="132"/>
+    <n v="0.58064516129032262"/>
+    <n v="0.68666666666666665"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2020"/>
+    <n v="236"/>
+    <n v="75"/>
+    <n v="161"/>
+    <n v="0.31779661016949151"/>
+    <n v="0.68220338983050843"/>
+    <n v="153"/>
+    <n v="43"/>
+    <n v="110"/>
+    <x v="133"/>
+    <n v="0.57333333333333336"/>
+    <n v="0.68322981366459623"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2019"/>
+    <n v="223"/>
+    <n v="80"/>
+    <n v="143"/>
+    <n v="0.35874439461883406"/>
+    <n v="0.64125560538116588"/>
+    <n v="167"/>
+    <n v="57"/>
+    <n v="110"/>
+    <x v="134"/>
+    <n v="0.71250000000000002"/>
+    <n v="0.76923076923076927"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2018"/>
+    <n v="232"/>
+    <n v="70"/>
+    <n v="162"/>
+    <n v="0.30172413793103448"/>
+    <n v="0.69827586206896552"/>
+    <n v="165"/>
+    <n v="49"/>
+    <n v="116"/>
+    <x v="135"/>
+    <n v="0.7"/>
+    <n v="0.71604938271604934"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2017"/>
+    <n v="262"/>
+    <n v="92"/>
+    <n v="170"/>
+    <n v="0.35114503816793891"/>
+    <n v="0.64885496183206104"/>
+    <n v="192"/>
+    <n v="65"/>
+    <n v="127"/>
+    <x v="136"/>
+    <n v="0.70652173913043481"/>
+    <n v="0.74705882352941178"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2016"/>
+    <n v="253"/>
+    <n v="75"/>
+    <n v="178"/>
+    <n v="0.29644268774703558"/>
+    <n v="0.70355731225296447"/>
+    <n v="182"/>
+    <n v="55"/>
+    <n v="127"/>
+    <x v="137"/>
+    <n v="0.73333333333333328"/>
+    <n v="0.7134831460674157"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2015"/>
+    <n v="282"/>
+    <n v="83"/>
+    <n v="199"/>
+    <n v="0.29432624113475175"/>
+    <n v="0.70567375886524819"/>
+    <n v="205"/>
+    <n v="64"/>
+    <n v="141"/>
+    <x v="138"/>
+    <n v="0.77108433734939763"/>
+    <n v="0.70854271356783916"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2014"/>
+    <n v="327"/>
+    <n v="116"/>
+    <n v="211"/>
+    <n v="0.35474006116207951"/>
+    <n v="0.64525993883792054"/>
+    <n v="248"/>
+    <n v="79"/>
+    <n v="169"/>
+    <x v="139"/>
+    <n v="0.68103448275862066"/>
+    <n v="0.80094786729857825"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2013"/>
+    <n v="264"/>
+    <n v="90"/>
+    <n v="174"/>
+    <n v="0.34090909090909088"/>
+    <n v="0.65909090909090906"/>
+    <n v="195"/>
+    <n v="64"/>
+    <n v="131"/>
+    <x v="140"/>
+    <n v="0.71111111111111114"/>
+    <n v="0.75287356321839083"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2012"/>
+    <n v="306"/>
+    <n v="111"/>
+    <n v="195"/>
+    <n v="0.36274509803921567"/>
+    <n v="0.63725490196078427"/>
+    <n v="206"/>
+    <n v="74"/>
+    <n v="132"/>
+    <x v="141"/>
+    <n v="0.66666666666666663"/>
+    <n v="0.67692307692307696"/>
+  </r>
+  <r>
+    <n v="191676"/>
+    <x v="12"/>
+    <n v="2011"/>
+    <n v="321"/>
+    <n v="110"/>
+    <n v="211"/>
+    <n v="0.34267912772585668"/>
+    <n v="0.65732087227414326"/>
+    <n v="220"/>
+    <n v="76"/>
+    <n v="144"/>
+    <x v="142"/>
+    <n v="0.69090909090909092"/>
+    <n v="0.68246445497630337"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2021"/>
+    <n v="347"/>
+    <n v="185"/>
+    <n v="162"/>
+    <n v="0.5331412103746398"/>
+    <n v="0.4668587896253602"/>
+    <n v="232"/>
+    <n v="114"/>
+    <n v="118"/>
+    <x v="143"/>
+    <n v="0.61621621621621625"/>
+    <n v="0.72839506172839508"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2020"/>
+    <n v="393"/>
+    <n v="200"/>
+    <n v="193"/>
+    <n v="0.5089058524173028"/>
+    <n v="0.4910941475826972"/>
+    <n v="243"/>
+    <n v="108"/>
+    <n v="135"/>
+    <x v="144"/>
+    <n v="0.54"/>
+    <n v="0.69948186528497414"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2019"/>
+    <n v="347"/>
+    <n v="151"/>
+    <n v="196"/>
+    <n v="0.43515850144092216"/>
+    <n v="0.56484149855907784"/>
+    <n v="233"/>
+    <n v="94"/>
+    <n v="139"/>
+    <x v="145"/>
+    <n v="0.62251655629139069"/>
+    <n v="0.70918367346938771"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2018"/>
+    <n v="321"/>
+    <n v="146"/>
+    <n v="175"/>
+    <n v="0.45482866043613707"/>
+    <n v="0.54517133956386288"/>
+    <n v="216"/>
+    <n v="96"/>
+    <n v="120"/>
+    <x v="146"/>
+    <n v="0.65753424657534243"/>
+    <n v="0.68571428571428572"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2017"/>
+    <n v="416"/>
+    <n v="190"/>
+    <n v="226"/>
+    <n v="0.45673076923076922"/>
+    <n v="0.54326923076923073"/>
+    <n v="280"/>
+    <n v="127"/>
+    <n v="153"/>
+    <x v="147"/>
+    <n v="0.66842105263157892"/>
+    <n v="0.67699115044247793"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2016"/>
+    <n v="346"/>
+    <n v="135"/>
+    <n v="211"/>
+    <n v="0.39017341040462428"/>
+    <n v="0.60982658959537572"/>
+    <n v="248"/>
+    <n v="87"/>
+    <n v="161"/>
+    <x v="148"/>
+    <n v="0.64444444444444449"/>
+    <n v="0.76303317535545023"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2015"/>
+    <n v="383"/>
+    <n v="189"/>
+    <n v="194"/>
+    <n v="0.49347258485639689"/>
+    <n v="0.50652741514360311"/>
+    <n v="244"/>
+    <n v="102"/>
+    <n v="142"/>
+    <x v="149"/>
+    <n v="0.53968253968253965"/>
+    <n v="0.73195876288659789"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2014"/>
+    <n v="340"/>
+    <n v="179"/>
+    <n v="161"/>
+    <n v="0.52647058823529413"/>
+    <n v="0.47352941176470587"/>
+    <n v="210"/>
+    <n v="96"/>
+    <n v="114"/>
+    <x v="150"/>
+    <n v="0.53631284916201116"/>
+    <n v="0.70807453416149069"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2013"/>
+    <n v="399"/>
+    <n v="188"/>
+    <n v="211"/>
+    <n v="0.47117794486215536"/>
+    <n v="0.52882205513784464"/>
+    <n v="255"/>
+    <n v="108"/>
+    <n v="147"/>
+    <x v="151"/>
+    <n v="0.57446808510638303"/>
+    <n v="0.69668246445497628"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2012"/>
+    <n v="375"/>
+    <n v="182"/>
+    <n v="193"/>
+    <n v="0.48533333333333334"/>
+    <n v="0.51466666666666672"/>
+    <n v="242"/>
+    <n v="105"/>
+    <n v="137"/>
+    <x v="152"/>
+    <n v="0.57692307692307687"/>
+    <n v="0.7098445595854922"/>
+  </r>
+  <r>
+    <n v="213668"/>
+    <x v="13"/>
+    <n v="2011"/>
+    <n v="357"/>
+    <n v="138"/>
+    <n v="219"/>
+    <n v="0.38655462184873951"/>
+    <n v="0.61344537815126055"/>
+    <n v="250"/>
+    <n v="87"/>
+    <n v="163"/>
+    <x v="153"/>
+    <n v="0.63043478260869568"/>
+    <n v="0.74429223744292239"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2021"/>
+    <n v="213"/>
+    <n v="123"/>
+    <n v="90"/>
+    <n v="0.57746478873239437"/>
+    <n v="0.42253521126760563"/>
+    <n v="97"/>
+    <n v="49"/>
+    <n v="48"/>
+    <x v="154"/>
+    <n v="0.3983739837398374"/>
+    <n v="0.53333333333333333"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2020"/>
+    <n v="254"/>
+    <n v="160"/>
+    <n v="94"/>
+    <n v="0.62992125984251968"/>
+    <n v="0.37007874015748032"/>
+    <n v="108"/>
+    <n v="57"/>
+    <n v="51"/>
+    <x v="155"/>
+    <n v="0.35625000000000001"/>
+    <n v="0.54255319148936165"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2019"/>
+    <n v="171"/>
+    <n v="80"/>
+    <n v="91"/>
+    <n v="0.46783625730994149"/>
+    <n v="0.53216374269005851"/>
+    <n v="92"/>
+    <n v="40"/>
+    <n v="52"/>
+    <x v="156"/>
+    <n v="0.5"/>
+    <n v="0.5714285714285714"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2018"/>
+    <n v="159"/>
+    <n v="71"/>
+    <n v="88"/>
+    <n v="0.44654088050314467"/>
+    <n v="0.55345911949685533"/>
+    <n v="78"/>
+    <n v="34"/>
+    <n v="44"/>
+    <x v="157"/>
+    <n v="0.47887323943661969"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2017"/>
+    <n v="155"/>
+    <n v="75"/>
+    <n v="80"/>
+    <n v="0.4838709677419355"/>
+    <n v="0.5161290322580645"/>
+    <n v="81"/>
+    <n v="35"/>
+    <n v="46"/>
+    <x v="158"/>
+    <n v="0.46666666666666667"/>
+    <n v="0.57499999999999996"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2016"/>
+    <n v="198"/>
+    <n v="91"/>
+    <n v="107"/>
+    <n v="0.45959595959595961"/>
+    <n v="0.54040404040404044"/>
+    <n v="78"/>
+    <n v="34"/>
+    <n v="44"/>
+    <x v="159"/>
+    <n v="0.37362637362637363"/>
+    <n v="0.41121495327102803"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2015"/>
+    <n v="216"/>
+    <n v="102"/>
+    <n v="114"/>
+    <n v="0.47222222222222221"/>
+    <n v="0.52777777777777779"/>
+    <n v="82"/>
+    <n v="45"/>
+    <n v="37"/>
+    <x v="160"/>
+    <n v="0.44117647058823528"/>
+    <n v="0.32456140350877194"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2014"/>
+    <n v="102"/>
+    <n v="50"/>
+    <n v="52"/>
+    <n v="0.49019607843137253"/>
+    <n v="0.50980392156862742"/>
+    <n v="50"/>
+    <n v="25"/>
+    <n v="25"/>
+    <x v="161"/>
+    <n v="0.5"/>
+    <n v="0.48076923076923078"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2013"/>
+    <n v="143"/>
+    <n v="59"/>
+    <n v="84"/>
+    <n v="0.41258741258741261"/>
+    <n v="0.58741258741258739"/>
+    <n v="71"/>
+    <n v="26"/>
+    <n v="45"/>
+    <x v="162"/>
+    <n v="0.44067796610169491"/>
+    <n v="0.5357142857142857"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2012"/>
+    <n v="128"/>
+    <n v="67"/>
+    <n v="61"/>
+    <n v="0.5234375"/>
+    <n v="0.4765625"/>
+    <n v="62"/>
+    <n v="32"/>
+    <n v="30"/>
+    <x v="163"/>
+    <n v="0.47761194029850745"/>
+    <n v="0.49180327868852458"/>
+  </r>
+  <r>
+    <n v="106342"/>
+    <x v="14"/>
+    <n v="2011"/>
+    <n v="111"/>
+    <n v="50"/>
+    <n v="61"/>
+    <n v="0.45045045045045046"/>
+    <n v="0.5495495495495496"/>
+    <n v="55"/>
+    <n v="25"/>
+    <n v="30"/>
+    <x v="164"/>
+    <n v="0.5"/>
+    <n v="0.49180327868852458"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2021"/>
+    <n v="338"/>
+    <n v="181"/>
+    <n v="157"/>
+    <n v="0.53550295857988162"/>
+    <n v="0.46449704142011833"/>
+    <n v="188"/>
+    <n v="86"/>
+    <n v="102"/>
+    <x v="165"/>
+    <n v="0.47513812154696133"/>
+    <n v="0.64968152866242035"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2020"/>
+    <n v="332"/>
+    <n v="171"/>
+    <n v="161"/>
+    <n v="0.51506024096385539"/>
+    <n v="0.48493975903614456"/>
+    <n v="150"/>
+    <n v="59"/>
+    <n v="91"/>
+    <x v="166"/>
+    <n v="0.34502923976608185"/>
+    <n v="0.56521739130434778"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2019"/>
+    <n v="349"/>
+    <n v="172"/>
+    <n v="177"/>
+    <n v="0.49283667621776506"/>
+    <n v="0.50716332378223494"/>
+    <n v="178"/>
+    <n v="71"/>
+    <n v="107"/>
+    <x v="167"/>
+    <n v="0.41279069767441862"/>
+    <n v="0.60451977401129942"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2018"/>
+    <n v="313"/>
+    <n v="138"/>
+    <n v="175"/>
+    <n v="0.44089456869009586"/>
+    <n v="0.5591054313099042"/>
+    <n v="171"/>
+    <n v="66"/>
+    <n v="105"/>
+    <x v="168"/>
+    <n v="0.47826086956521741"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2017"/>
+    <n v="293"/>
+    <n v="138"/>
+    <n v="155"/>
+    <n v="0.47098976109215018"/>
+    <n v="0.52901023890784982"/>
+    <n v="174"/>
+    <n v="78"/>
+    <n v="96"/>
+    <x v="169"/>
+    <n v="0.56521739130434778"/>
+    <n v="0.61935483870967745"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2016"/>
+    <n v="277"/>
+    <n v="151"/>
+    <n v="126"/>
+    <n v="0.54512635379061369"/>
+    <n v="0.45487364620938631"/>
+    <n v="151"/>
+    <n v="64"/>
+    <n v="87"/>
+    <x v="170"/>
+    <n v="0.42384105960264901"/>
+    <n v="0.69047619047619047"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2015"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="154"/>
+    <n v="0.49342105263157893"/>
+    <n v="0.50657894736842102"/>
+    <n v="160"/>
+    <n v="71"/>
+    <n v="89"/>
+    <x v="171"/>
+    <n v="0.47333333333333333"/>
+    <n v="0.57792207792207795"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2014"/>
+    <n v="297"/>
+    <n v="151"/>
+    <n v="146"/>
+    <n v="0.50841750841750843"/>
+    <n v="0.49158249158249157"/>
+    <n v="161"/>
+    <n v="76"/>
+    <n v="85"/>
+    <x v="172"/>
+    <n v="0.50331125827814571"/>
+    <n v="0.5821917808219178"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2013"/>
+    <n v="317"/>
+    <n v="159"/>
+    <n v="158"/>
+    <n v="0.50157728706624605"/>
+    <n v="0.49842271293375395"/>
+    <n v="177"/>
+    <n v="68"/>
+    <n v="109"/>
+    <x v="173"/>
+    <n v="0.42767295597484278"/>
+    <n v="0.689873417721519"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2012"/>
+    <n v="298"/>
+    <n v="135"/>
+    <n v="163"/>
+    <n v="0.45302013422818793"/>
+    <n v="0.54697986577181212"/>
+    <n v="160"/>
+    <n v="69"/>
+    <n v="91"/>
+    <x v="174"/>
+    <n v="0.51111111111111107"/>
+    <n v="0.55828220858895705"/>
+  </r>
+  <r>
+    <n v="220710"/>
+    <x v="15"/>
+    <n v="2011"/>
+    <n v="333"/>
+    <n v="170"/>
+    <n v="163"/>
+    <n v="0.51051051051051055"/>
+    <n v="0.4894894894894895"/>
+    <n v="180"/>
+    <n v="81"/>
+    <n v="99"/>
+    <x v="175"/>
+    <n v="0.47647058823529409"/>
+    <n v="0.6073619631901841"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2021"/>
+    <n v="221"/>
+    <n v="118"/>
+    <n v="103"/>
+    <n v="0.5339366515837104"/>
+    <n v="0.4660633484162896"/>
+    <n v="136"/>
+    <n v="70"/>
+    <n v="66"/>
+    <x v="176"/>
+    <n v="0.59322033898305082"/>
+    <n v="0.64077669902912626"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2020"/>
+    <n v="235"/>
+    <n v="117"/>
+    <n v="118"/>
+    <n v="0.49787234042553191"/>
+    <n v="0.50212765957446803"/>
+    <n v="160"/>
+    <n v="69"/>
+    <n v="91"/>
+    <x v="177"/>
+    <n v="0.58974358974358976"/>
+    <n v="0.77118644067796616"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2019"/>
+    <n v="172"/>
+    <n v="96"/>
+    <n v="76"/>
+    <n v="0.55813953488372092"/>
+    <n v="0.44186046511627908"/>
+    <n v="123"/>
+    <n v="57"/>
+    <n v="66"/>
+    <x v="178"/>
+    <n v="0.59375"/>
+    <n v="0.86842105263157898"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2018"/>
+    <n v="210"/>
+    <n v="114"/>
+    <n v="96"/>
+    <n v="0.54285714285714282"/>
+    <n v="0.45714285714285713"/>
+    <n v="134"/>
+    <n v="67"/>
+    <n v="67"/>
+    <x v="179"/>
+    <n v="0.58771929824561409"/>
+    <n v="0.69791666666666663"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2017"/>
+    <n v="224"/>
+    <n v="127"/>
+    <n v="97"/>
+    <n v="0.5669642857142857"/>
+    <n v="0.4330357142857143"/>
+    <n v="149"/>
+    <n v="72"/>
+    <n v="77"/>
+    <x v="180"/>
+    <n v="0.56692913385826771"/>
+    <n v="0.79381443298969068"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2016"/>
+    <n v="211"/>
+    <n v="105"/>
+    <n v="106"/>
+    <n v="0.49763033175355448"/>
+    <n v="0.50236966824644547"/>
+    <n v="151"/>
+    <n v="71"/>
+    <n v="80"/>
+    <x v="181"/>
+    <n v="0.67619047619047623"/>
+    <n v="0.75471698113207553"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2015"/>
+    <n v="281"/>
+    <n v="165"/>
+    <n v="116"/>
+    <n v="0.58718861209964412"/>
+    <n v="0.41281138790035588"/>
+    <n v="186"/>
+    <n v="93"/>
+    <n v="93"/>
+    <x v="182"/>
+    <n v="0.5636363636363636"/>
+    <n v="0.80172413793103448"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2014"/>
+    <n v="266"/>
+    <n v="125"/>
+    <n v="141"/>
+    <n v="0.46992481203007519"/>
+    <n v="0.53007518796992481"/>
+    <n v="171"/>
+    <n v="68"/>
+    <n v="103"/>
+    <x v="183"/>
+    <n v="0.54400000000000004"/>
+    <n v="0.73049645390070927"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2013"/>
+    <n v="296"/>
+    <n v="142"/>
+    <n v="154"/>
+    <n v="0.47972972972972971"/>
+    <n v="0.52027027027027029"/>
+    <n v="187"/>
+    <n v="84"/>
+    <n v="103"/>
+    <x v="184"/>
+    <n v="0.59154929577464788"/>
+    <n v="0.66883116883116878"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2012"/>
+    <n v="225"/>
+    <n v="103"/>
+    <n v="122"/>
+    <n v="0.45777777777777778"/>
+    <n v="0.54222222222222227"/>
+    <n v="161"/>
+    <n v="67"/>
+    <n v="94"/>
+    <x v="185"/>
+    <n v="0.65048543689320393"/>
+    <n v="0.77049180327868849"/>
+  </r>
+  <r>
+    <n v="175980"/>
+    <x v="16"/>
+    <n v="2011"/>
+    <n v="258"/>
+    <n v="140"/>
+    <n v="118"/>
+    <n v="0.54263565891472865"/>
+    <n v="0.4573643410852713"/>
+    <n v="169"/>
+    <n v="84"/>
+    <n v="85"/>
+    <x v="186"/>
+    <n v="0.6"/>
+    <n v="0.72033898305084743"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2021"/>
+    <n v="270"/>
+    <n v="145"/>
+    <n v="125"/>
+    <n v="0.53703703703703709"/>
+    <n v="0.46296296296296297"/>
+    <n v="149"/>
+    <n v="69"/>
+    <n v="80"/>
+    <x v="187"/>
+    <n v="0.47586206896551725"/>
+    <n v="0.64"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2020"/>
+    <n v="391"/>
+    <n v="178"/>
+    <n v="213"/>
+    <n v="0.45524296675191817"/>
+    <n v="0.54475703324808189"/>
+    <n v="228"/>
+    <n v="84"/>
+    <n v="144"/>
+    <x v="188"/>
+    <n v="0.47191011235955055"/>
+    <n v="0.676056338028169"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2019"/>
+    <n v="390"/>
+    <n v="182"/>
+    <n v="208"/>
+    <n v="0.46666666666666667"/>
+    <n v="0.53333333333333333"/>
+    <n v="241"/>
+    <n v="103"/>
+    <n v="138"/>
+    <x v="189"/>
+    <n v="0.56593406593406592"/>
+    <n v="0.66346153846153844"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2018"/>
+    <n v="343"/>
+    <n v="169"/>
+    <n v="174"/>
+    <n v="0.49271137026239065"/>
+    <n v="0.50728862973760935"/>
+    <n v="197"/>
+    <n v="93"/>
+    <n v="104"/>
+    <x v="190"/>
+    <n v="0.55029585798816572"/>
+    <n v="0.5977011494252874"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2017"/>
+    <n v="339"/>
+    <n v="163"/>
+    <n v="176"/>
+    <n v="0.4808259587020649"/>
+    <n v="0.5191740412979351"/>
+    <n v="203"/>
+    <n v="83"/>
+    <n v="120"/>
+    <x v="191"/>
+    <n v="0.50920245398773001"/>
+    <n v="0.68181818181818177"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2016"/>
+    <n v="355"/>
+    <n v="168"/>
+    <n v="187"/>
+    <n v="0.47323943661971829"/>
+    <n v="0.52676056338028165"/>
+    <n v="198"/>
+    <n v="87"/>
+    <n v="111"/>
+    <x v="192"/>
+    <n v="0.5178571428571429"/>
+    <n v="0.5935828877005348"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2015"/>
+    <n v="378"/>
+    <n v="191"/>
+    <n v="187"/>
+    <n v="0.50529100529100535"/>
+    <n v="0.49470899470899471"/>
+    <n v="218"/>
+    <n v="97"/>
+    <n v="121"/>
+    <x v="193"/>
+    <n v="0.50785340314136129"/>
+    <n v="0.6470588235294118"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2014"/>
+    <n v="383"/>
+    <n v="204"/>
+    <n v="179"/>
+    <n v="0.53263707571801566"/>
+    <n v="0.46736292428198434"/>
+    <n v="213"/>
+    <n v="101"/>
+    <n v="112"/>
+    <x v="194"/>
+    <n v="0.49509803921568629"/>
+    <n v="0.62569832402234637"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2013"/>
+    <n v="393"/>
+    <n v="180"/>
+    <n v="213"/>
+    <n v="0.4580152671755725"/>
+    <n v="0.5419847328244275"/>
+    <n v="229"/>
+    <n v="95"/>
+    <n v="134"/>
+    <x v="195"/>
+    <n v="0.52777777777777779"/>
+    <n v="0.62910798122065725"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2012"/>
+    <n v="392"/>
+    <n v="177"/>
+    <n v="215"/>
+    <n v="0.45153061224489793"/>
+    <n v="0.54846938775510201"/>
+    <n v="227"/>
+    <n v="95"/>
+    <n v="132"/>
+    <x v="196"/>
+    <n v="0.53672316384180796"/>
+    <n v="0.61395348837209307"/>
+  </r>
+  <r>
+    <n v="147341"/>
+    <x v="17"/>
+    <n v="2011"/>
+    <n v="367"/>
+    <n v="187"/>
+    <n v="180"/>
+    <n v="0.50953678474114439"/>
+    <n v="0.49046321525885561"/>
+    <n v="209"/>
+    <n v="94"/>
+    <n v="115"/>
+    <x v="197"/>
+    <n v="0.50267379679144386"/>
+    <n v="0.63888888888888884"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2021"/>
+    <n v="267"/>
+    <n v="118"/>
+    <n v="149"/>
+    <n v="0.44194756554307119"/>
+    <n v="0.55805243445692887"/>
+    <n v="236"/>
+    <n v="100"/>
+    <n v="136"/>
+    <x v="198"/>
+    <n v="0.84745762711864403"/>
+    <n v="0.91275167785234901"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2020"/>
+    <n v="268"/>
+    <n v="118"/>
+    <n v="150"/>
+    <n v="0.44029850746268656"/>
+    <n v="0.55970149253731338"/>
+    <n v="223"/>
+    <n v="94"/>
+    <n v="129"/>
+    <x v="199"/>
+    <n v="0.79661016949152541"/>
+    <n v="0.86"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2019"/>
+    <n v="265"/>
+    <n v="118"/>
+    <n v="147"/>
+    <n v="0.44528301886792454"/>
+    <n v="0.55471698113207546"/>
+    <n v="225"/>
+    <n v="96"/>
+    <n v="129"/>
+    <x v="200"/>
+    <n v="0.81355932203389836"/>
+    <n v="0.87755102040816324"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2018"/>
+    <n v="261"/>
+    <n v="103"/>
+    <n v="158"/>
+    <n v="0.3946360153256705"/>
+    <n v="0.6053639846743295"/>
+    <n v="218"/>
+    <n v="77"/>
+    <n v="141"/>
+    <x v="201"/>
+    <n v="0.74757281553398058"/>
+    <n v="0.89240506329113922"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2017"/>
+    <n v="278"/>
+    <n v="105"/>
+    <n v="173"/>
+    <n v="0.37769784172661869"/>
+    <n v="0.62230215827338131"/>
+    <n v="231"/>
+    <n v="86"/>
+    <n v="145"/>
+    <x v="202"/>
+    <n v="0.81904761904761902"/>
+    <n v="0.83815028901734101"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2016"/>
+    <n v="274"/>
+    <n v="103"/>
+    <n v="171"/>
+    <n v="0.37591240875912407"/>
+    <n v="0.62408759124087587"/>
+    <n v="240"/>
+    <n v="88"/>
+    <n v="152"/>
+    <x v="203"/>
+    <n v="0.85436893203883491"/>
+    <n v="0.88888888888888884"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2015"/>
+    <n v="254"/>
+    <n v="96"/>
+    <n v="158"/>
+    <n v="0.37795275590551181"/>
+    <n v="0.62204724409448819"/>
+    <n v="229"/>
+    <n v="86"/>
+    <n v="143"/>
+    <x v="204"/>
+    <n v="0.89583333333333337"/>
+    <n v="0.90506329113924056"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2014"/>
+    <n v="262"/>
+    <n v="99"/>
+    <n v="163"/>
+    <n v="0.37786259541984735"/>
+    <n v="0.62213740458015265"/>
+    <n v="220"/>
+    <n v="78"/>
+    <n v="142"/>
+    <x v="205"/>
+    <n v="0.78787878787878785"/>
+    <n v="0.87116564417177911"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2013"/>
+    <n v="252"/>
+    <n v="103"/>
+    <n v="149"/>
+    <n v="0.40873015873015872"/>
+    <n v="0.59126984126984128"/>
+    <n v="207"/>
+    <n v="83"/>
+    <n v="124"/>
+    <x v="206"/>
+    <n v="0.80582524271844658"/>
+    <n v="0.83221476510067116"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2012"/>
+    <n v="240"/>
+    <n v="100"/>
+    <n v="140"/>
+    <n v="0.41666666666666669"/>
+    <n v="0.58333333333333337"/>
+    <n v="208"/>
+    <n v="89"/>
+    <n v="119"/>
+    <x v="207"/>
+    <n v="0.89"/>
+    <n v="0.85"/>
+  </r>
+  <r>
+    <n v="121257"/>
+    <x v="18"/>
+    <n v="2011"/>
+    <n v="242"/>
+    <n v="77"/>
+    <n v="165"/>
+    <n v="0.31818181818181818"/>
+    <n v="0.68181818181818177"/>
+    <n v="195"/>
+    <n v="60"/>
+    <n v="135"/>
+    <x v="208"/>
+    <n v="0.77922077922077926"/>
+    <n v="0.81818181818181823"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2021"/>
+    <n v="216"/>
+    <n v="120"/>
+    <n v="96"/>
+    <n v="0.55555555555555558"/>
+    <n v="0.44444444444444442"/>
+    <n v="134"/>
+    <n v="73"/>
+    <n v="61"/>
+    <x v="209"/>
+    <n v="0.60833333333333328"/>
+    <n v="0.63541666666666663"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2020"/>
+    <n v="211"/>
+    <n v="89"/>
+    <n v="122"/>
+    <n v="0.4218009478672986"/>
+    <n v="0.5781990521327014"/>
+    <n v="142"/>
+    <n v="64"/>
+    <n v="78"/>
+    <x v="210"/>
+    <n v="0.7191011235955056"/>
+    <n v="0.63934426229508201"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2019"/>
+    <n v="238"/>
+    <n v="116"/>
+    <n v="122"/>
+    <n v="0.48739495798319327"/>
+    <n v="0.51260504201680668"/>
+    <n v="159"/>
+    <n v="75"/>
+    <n v="84"/>
+    <x v="211"/>
+    <n v="0.64655172413793105"/>
+    <n v="0.68852459016393441"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2018"/>
+    <n v="204"/>
+    <n v="90"/>
+    <n v="114"/>
+    <n v="0.44117647058823528"/>
+    <n v="0.55882352941176472"/>
+    <n v="139"/>
+    <n v="57"/>
+    <n v="82"/>
+    <x v="212"/>
+    <n v="0.6333333333333333"/>
+    <n v="0.7192982456140351"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2017"/>
+    <n v="227"/>
+    <n v="112"/>
+    <n v="115"/>
+    <n v="0.4933920704845815"/>
+    <n v="0.50660792951541855"/>
+    <n v="154"/>
+    <n v="72"/>
+    <n v="82"/>
+    <x v="213"/>
+    <n v="0.6428571428571429"/>
+    <n v="0.71304347826086956"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2016"/>
+    <n v="289"/>
+    <n v="127"/>
+    <n v="162"/>
+    <n v="0.43944636678200694"/>
+    <n v="0.56055363321799312"/>
+    <n v="196"/>
+    <n v="80"/>
+    <n v="116"/>
+    <x v="214"/>
+    <n v="0.62992125984251968"/>
+    <n v="0.71604938271604934"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2015"/>
+    <n v="248"/>
+    <n v="125"/>
+    <n v="123"/>
+    <n v="0.50403225806451613"/>
+    <n v="0.49596774193548387"/>
+    <n v="171"/>
+    <n v="79"/>
+    <n v="92"/>
+    <x v="215"/>
+    <n v="0.63200000000000001"/>
+    <n v="0.74796747967479671"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2014"/>
+    <n v="282"/>
+    <n v="139"/>
+    <n v="143"/>
+    <n v="0.49290780141843971"/>
+    <n v="0.50709219858156029"/>
+    <n v="191"/>
+    <n v="88"/>
+    <n v="103"/>
+    <x v="216"/>
+    <n v="0.63309352517985606"/>
+    <n v="0.72027972027972031"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2013"/>
+    <n v="262"/>
+    <n v="138"/>
+    <n v="124"/>
+    <n v="0.52671755725190839"/>
+    <n v="0.47328244274809161"/>
+    <n v="194"/>
+    <n v="98"/>
+    <n v="96"/>
+    <x v="217"/>
+    <n v="0.71014492753623193"/>
+    <n v="0.77419354838709675"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2012"/>
+    <n v="264"/>
+    <n v="110"/>
+    <n v="154"/>
+    <n v="0.41666666666666669"/>
+    <n v="0.58333333333333337"/>
+    <n v="190"/>
+    <n v="68"/>
+    <n v="122"/>
+    <x v="218"/>
+    <n v="0.61818181818181817"/>
+    <n v="0.79220779220779225"/>
+  </r>
+  <r>
+    <n v="239628"/>
+    <x v="19"/>
+    <n v="2011"/>
+    <n v="261"/>
+    <n v="142"/>
+    <n v="119"/>
+    <n v="0.54406130268199238"/>
+    <n v="0.45593869731800768"/>
+    <n v="183"/>
+    <n v="92"/>
+    <n v="91"/>
+    <x v="219"/>
+    <n v="0.647887323943662"/>
+    <n v="0.76470588235294112"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2021"/>
+    <n v="242"/>
+    <n v="103"/>
+    <n v="139"/>
+    <n v="0.42561983471074383"/>
+    <n v="0.57438016528925617"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="43"/>
+    <x v="220"/>
+    <n v="0.21359223300970873"/>
+    <n v="0.30935251798561153"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2020"/>
+    <n v="269"/>
+    <n v="117"/>
+    <n v="152"/>
+    <n v="0.43494423791821563"/>
+    <n v="0.56505576208178443"/>
+    <n v="53"/>
+    <n v="24"/>
+    <n v="29"/>
+    <x v="221"/>
+    <n v="0.20512820512820512"/>
+    <n v="0.19078947368421054"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2019"/>
+    <n v="267"/>
+    <n v="93"/>
+    <n v="174"/>
+    <n v="0.34831460674157305"/>
+    <n v="0.651685393258427"/>
+    <n v="75"/>
+    <n v="13"/>
+    <n v="62"/>
+    <x v="222"/>
+    <n v="0.13978494623655913"/>
+    <n v="0.35632183908045978"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2018"/>
+    <n v="271"/>
+    <n v="112"/>
+    <n v="159"/>
+    <n v="0.41328413284132842"/>
+    <n v="0.58671586715867163"/>
+    <n v="90"/>
+    <n v="42"/>
+    <n v="48"/>
+    <x v="223"/>
+    <n v="0.375"/>
+    <n v="0.30188679245283018"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2017"/>
+    <n v="237"/>
+    <n v="88"/>
+    <n v="149"/>
+    <n v="0.37130801687763715"/>
+    <n v="0.62869198312236285"/>
+    <n v="92"/>
+    <n v="31"/>
+    <n v="61"/>
+    <x v="224"/>
+    <n v="0.35227272727272729"/>
+    <n v="0.40939597315436244"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2016"/>
+    <n v="196"/>
+    <n v="85"/>
+    <n v="111"/>
+    <n v="0.43367346938775508"/>
+    <n v="0.56632653061224492"/>
+    <n v="64"/>
+    <n v="17"/>
+    <n v="47"/>
+    <x v="225"/>
+    <n v="0.2"/>
+    <n v="0.42342342342342343"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2015"/>
+    <n v="345"/>
+    <n v="127"/>
+    <n v="218"/>
+    <n v="0.36811594202898551"/>
+    <n v="0.63188405797101455"/>
+    <n v="120"/>
+    <n v="30"/>
+    <n v="90"/>
+    <x v="226"/>
+    <n v="0.23622047244094488"/>
+    <n v="0.41284403669724773"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2014"/>
+    <n v="338"/>
+    <n v="117"/>
+    <n v="221"/>
+    <n v="0.34615384615384615"/>
+    <n v="0.65384615384615385"/>
+    <n v="61"/>
+    <n v="18"/>
+    <n v="43"/>
+    <x v="227"/>
+    <n v="0.15384615384615385"/>
+    <n v="0.19457013574660634"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2013"/>
+    <n v="312"/>
+    <n v="118"/>
+    <n v="194"/>
+    <n v="0.37820512820512819"/>
+    <n v="0.62179487179487181"/>
+    <n v="63"/>
+    <n v="19"/>
+    <n v="44"/>
+    <x v="228"/>
+    <n v="0.16101694915254236"/>
+    <n v="0.22680412371134021"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2012"/>
+    <n v="249"/>
+    <n v="90"/>
+    <n v="159"/>
+    <n v="0.36144578313253012"/>
+    <n v="0.63855421686746983"/>
+    <n v="84"/>
+    <n v="24"/>
+    <n v="60"/>
+    <x v="229"/>
+    <n v="0.26666666666666666"/>
+    <n v="0.37735849056603776"/>
+  </r>
+  <r>
+    <n v="176318"/>
+    <x v="20"/>
+    <n v="2011"/>
+    <n v="261"/>
+    <n v="112"/>
+    <n v="149"/>
+    <n v="0.42911877394636017"/>
+    <n v="0.57088122605363989"/>
+    <n v="74"/>
+    <n v="31"/>
+    <n v="43"/>
+    <x v="230"/>
+    <n v="0.2767857142857143"/>
+    <n v="0.28859060402684567"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2021"/>
+    <n v="67"/>
+    <n v="27"/>
+    <n v="40"/>
+    <n v="0.40298507462686567"/>
+    <n v="0.59701492537313428"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="20"/>
+    <x v="231"/>
+    <n v="0.37037037037037035"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2020"/>
+    <n v="120"/>
+    <n v="49"/>
+    <n v="71"/>
+    <n v="0.40833333333333333"/>
+    <n v="0.59166666666666667"/>
+    <n v="51"/>
+    <n v="14"/>
+    <n v="37"/>
+    <x v="232"/>
+    <n v="0.2857142857142857"/>
+    <n v="0.52112676056338025"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2019"/>
+    <n v="129"/>
+    <n v="40"/>
+    <n v="89"/>
+    <n v="0.31007751937984496"/>
+    <n v="0.68992248062015504"/>
+    <n v="58"/>
+    <n v="14"/>
+    <n v="44"/>
+    <x v="233"/>
+    <n v="0.35"/>
+    <n v="0.4943820224719101"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2018"/>
+    <n v="147"/>
+    <n v="56"/>
+    <n v="91"/>
+    <n v="0.38095238095238093"/>
+    <n v="0.61904761904761907"/>
+    <n v="88"/>
+    <n v="29"/>
+    <n v="59"/>
+    <x v="234"/>
+    <n v="0.5178571428571429"/>
+    <n v="0.64835164835164838"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2017"/>
+    <n v="141"/>
+    <n v="33"/>
+    <n v="108"/>
+    <n v="0.23404255319148937"/>
+    <n v="0.76595744680851063"/>
+    <n v="80"/>
+    <n v="15"/>
+    <n v="65"/>
+    <x v="235"/>
+    <n v="0.45454545454545453"/>
+    <n v="0.60185185185185186"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2016"/>
+    <n v="157"/>
+    <n v="48"/>
+    <n v="109"/>
+    <n v="0.30573248407643311"/>
+    <n v="0.69426751592356684"/>
+    <n v="74"/>
+    <n v="19"/>
+    <n v="55"/>
+    <x v="236"/>
+    <n v="0.39583333333333331"/>
+    <n v="0.50458715596330272"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2015"/>
+    <n v="144"/>
+    <n v="48"/>
+    <n v="96"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.66666666666666663"/>
+    <n v="71"/>
+    <n v="22"/>
+    <n v="49"/>
+    <x v="237"/>
+    <n v="0.45833333333333331"/>
+    <n v="0.51041666666666663"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2014"/>
+    <n v="164"/>
+    <n v="61"/>
+    <n v="103"/>
+    <n v="0.37195121951219512"/>
+    <n v="0.62804878048780488"/>
+    <n v="86"/>
+    <n v="31"/>
+    <n v="55"/>
+    <x v="238"/>
+    <n v="0.50819672131147542"/>
+    <n v="0.53398058252427183"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2013"/>
+    <n v="163"/>
+    <n v="60"/>
+    <n v="103"/>
+    <n v="0.36809815950920244"/>
+    <n v="0.63190184049079756"/>
+    <n v="77"/>
+    <n v="26"/>
+    <n v="51"/>
+    <x v="239"/>
+    <n v="0.43333333333333335"/>
+    <n v="0.49514563106796117"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2012"/>
+    <n v="172"/>
+    <n v="67"/>
+    <n v="105"/>
+    <n v="0.38953488372093026"/>
+    <n v="0.61046511627906974"/>
+    <n v="70"/>
+    <n v="28"/>
+    <n v="42"/>
+    <x v="240"/>
+    <n v="0.41791044776119401"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="123457"/>
+    <x v="21"/>
+    <n v="2011"/>
+    <n v="163"/>
+    <n v="64"/>
+    <n v="99"/>
+    <n v="0.39263803680981596"/>
+    <n v="0.6073619631901841"/>
+    <n v="70"/>
+    <n v="24"/>
+    <n v="46"/>
+    <x v="241"/>
+    <n v="0.375"/>
+    <n v="0.46464646464646464"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2021"/>
+    <n v="201"/>
+    <n v="91"/>
+    <n v="110"/>
+    <n v="0.45273631840796019"/>
+    <n v="0.54726368159203975"/>
+    <n v="89"/>
+    <n v="32"/>
+    <n v="57"/>
+    <x v="242"/>
+    <n v="0.35164835164835168"/>
+    <n v="0.51818181818181819"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2020"/>
+    <n v="185"/>
+    <n v="75"/>
+    <n v="110"/>
+    <n v="0.40540540540540543"/>
+    <n v="0.59459459459459463"/>
+    <n v="83"/>
+    <n v="29"/>
+    <n v="54"/>
+    <x v="243"/>
+    <n v="0.38666666666666666"/>
+    <n v="0.49090909090909091"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2019"/>
+    <n v="148"/>
+    <n v="58"/>
+    <n v="90"/>
+    <n v="0.39189189189189189"/>
+    <n v="0.60810810810810811"/>
+    <n v="46"/>
+    <n v="10"/>
+    <n v="36"/>
+    <x v="244"/>
+    <n v="0.17241379310344829"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2018"/>
+    <n v="158"/>
+    <n v="70"/>
+    <n v="88"/>
+    <n v="0.44303797468354428"/>
+    <n v="0.55696202531645567"/>
+    <n v="49"/>
+    <n v="17"/>
+    <n v="32"/>
+    <x v="245"/>
+    <n v="0.24285714285714285"/>
+    <n v="0.36363636363636365"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2017"/>
+    <n v="248"/>
+    <n v="128"/>
+    <n v="120"/>
+    <n v="0.5161290322580645"/>
+    <n v="0.4838709677419355"/>
+    <n v="67"/>
+    <n v="22"/>
+    <n v="45"/>
+    <x v="246"/>
+    <n v="0.171875"/>
+    <n v="0.375"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2016"/>
+    <n v="226"/>
+    <n v="98"/>
+    <n v="128"/>
+    <n v="0.4336283185840708"/>
+    <n v="0.5663716814159292"/>
+    <n v="74"/>
+    <n v="16"/>
+    <n v="58"/>
+    <x v="247"/>
+    <n v="0.16326530612244897"/>
+    <n v="0.453125"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2015"/>
+    <n v="166"/>
+    <n v="70"/>
+    <n v="96"/>
+    <n v="0.42168674698795183"/>
+    <n v="0.57831325301204817"/>
+    <n v="50"/>
+    <n v="16"/>
+    <n v="34"/>
+    <x v="248"/>
+    <n v="0.22857142857142856"/>
+    <n v="0.35416666666666669"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2014"/>
+    <n v="195"/>
+    <n v="61"/>
+    <n v="134"/>
+    <n v="0.31282051282051282"/>
+    <n v="0.68717948717948718"/>
+    <n v="61"/>
+    <n v="13"/>
+    <n v="48"/>
+    <x v="249"/>
+    <n v="0.21311475409836064"/>
+    <n v="0.35820895522388058"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2013"/>
+    <n v="169"/>
+    <n v="53"/>
+    <n v="116"/>
+    <n v="0.31360946745562129"/>
+    <n v="0.68639053254437865"/>
+    <n v="55"/>
+    <n v="14"/>
+    <n v="41"/>
+    <x v="250"/>
+    <n v="0.26415094339622641"/>
+    <n v="0.35344827586206895"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2012"/>
+    <n v="201"/>
+    <n v="73"/>
+    <n v="128"/>
+    <n v="0.36318407960199006"/>
+    <n v="0.63681592039800994"/>
+    <n v="60"/>
+    <n v="14"/>
+    <n v="46"/>
+    <x v="251"/>
+    <n v="0.19178082191780821"/>
+    <n v="0.359375"/>
+  </r>
+  <r>
+    <n v="233611"/>
+    <x v="22"/>
+    <n v="2011"/>
+    <n v="223"/>
+    <n v="81"/>
+    <n v="142"/>
+    <n v="0.3632286995515695"/>
+    <n v="0.63677130044843044"/>
+    <n v="56"/>
+    <n v="14"/>
+    <n v="42"/>
+    <x v="252"/>
+    <n v="0.1728395061728395"/>
+    <n v="0.29577464788732394"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2021"/>
+    <n v="154"/>
+    <n v="56"/>
+    <n v="98"/>
+    <n v="0.36363636363636365"/>
+    <n v="0.63636363636363635"/>
+    <n v="52"/>
+    <n v="12"/>
+    <n v="40"/>
+    <x v="253"/>
+    <n v="0.21428571428571427"/>
+    <n v="0.40816326530612246"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2020"/>
+    <n v="168"/>
+    <n v="56"/>
+    <n v="112"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.66666666666666663"/>
+    <n v="68"/>
+    <n v="19"/>
+    <n v="49"/>
+    <x v="254"/>
+    <n v="0.3392857142857143"/>
+    <n v="0.4375"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2019"/>
+    <n v="153"/>
+    <n v="49"/>
+    <n v="104"/>
+    <n v="0.3202614379084967"/>
+    <n v="0.6797385620915033"/>
+    <n v="77"/>
+    <n v="19"/>
+    <n v="58"/>
+    <x v="255"/>
+    <n v="0.38775510204081631"/>
+    <n v="0.55769230769230771"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2018"/>
+    <n v="243"/>
+    <n v="78"/>
+    <n v="165"/>
+    <n v="0.32098765432098764"/>
+    <n v="0.67901234567901236"/>
+    <n v="86"/>
+    <n v="19"/>
+    <n v="67"/>
+    <x v="256"/>
+    <n v="0.24358974358974358"/>
+    <n v="0.40606060606060607"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2017"/>
+    <n v="204"/>
+    <n v="68"/>
+    <n v="136"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.66666666666666663"/>
+    <n v="102"/>
+    <n v="27"/>
+    <n v="75"/>
+    <x v="257"/>
+    <n v="0.39705882352941174"/>
+    <n v="0.55147058823529416"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2016"/>
+    <n v="198"/>
+    <n v="72"/>
+    <n v="126"/>
+    <n v="0.36363636363636365"/>
+    <n v="0.63636363636363635"/>
+    <n v="83"/>
+    <n v="26"/>
+    <n v="57"/>
+    <x v="258"/>
+    <n v="0.3611111111111111"/>
+    <n v="0.45238095238095238"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2015"/>
+    <n v="231"/>
+    <n v="77"/>
+    <n v="154"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.66666666666666663"/>
+    <n v="96"/>
+    <n v="23"/>
+    <n v="73"/>
+    <x v="259"/>
+    <n v="0.29870129870129869"/>
+    <n v="0.47402597402597402"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2014"/>
+    <n v="237"/>
+    <n v="79"/>
+    <n v="158"/>
+    <n v="0.33333333333333331"/>
+    <n v="0.66666666666666663"/>
+    <n v="125"/>
+    <n v="37"/>
+    <n v="88"/>
+    <x v="260"/>
+    <n v="0.46835443037974683"/>
+    <n v="0.55696202531645567"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2013"/>
+    <n v="200"/>
+    <n v="65"/>
+    <n v="135"/>
+    <n v="0.32500000000000001"/>
+    <n v="0.67500000000000004"/>
+    <n v="99"/>
+    <n v="23"/>
+    <n v="76"/>
+    <x v="261"/>
+    <n v="0.35384615384615387"/>
+    <n v="0.562962962962963"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2012"/>
+    <n v="243"/>
+    <n v="71"/>
+    <n v="172"/>
+    <n v="0.29218106995884774"/>
+    <n v="0.70781893004115226"/>
+    <n v="125"/>
+    <n v="33"/>
+    <n v="92"/>
+    <x v="262"/>
+    <n v="0.46478873239436619"/>
+    <n v="0.53488372093023251"/>
+  </r>
+  <r>
+    <n v="176406"/>
+    <x v="23"/>
+    <n v="2011"/>
+    <n v="207"/>
+    <n v="61"/>
+    <n v="146"/>
+    <n v="0.29468599033816423"/>
+    <n v="0.70531400966183577"/>
+    <n v="100"/>
+    <n v="27"/>
+    <n v="73"/>
+    <x v="263"/>
+    <n v="0.44262295081967212"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2021"/>
+    <n v="195"/>
+    <n v="69"/>
+    <n v="126"/>
+    <n v="0.35384615384615387"/>
+    <n v="0.64615384615384619"/>
+    <n v="76"/>
+    <n v="27"/>
+    <n v="49"/>
+    <x v="264"/>
+    <n v="0.39130434782608697"/>
+    <n v="0.3888888888888889"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2020"/>
+    <n v="234"/>
+    <n v="93"/>
+    <n v="141"/>
+    <n v="0.39743589743589741"/>
+    <n v="0.60256410256410253"/>
+    <n v="98"/>
+    <n v="41"/>
+    <n v="57"/>
+    <x v="265"/>
+    <n v="0.44086021505376344"/>
+    <n v="0.40425531914893614"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2019"/>
+    <n v="220"/>
+    <n v="70"/>
+    <n v="150"/>
+    <n v="0.31818181818181818"/>
+    <n v="0.68181818181818177"/>
+    <n v="95"/>
+    <n v="27"/>
+    <n v="68"/>
+    <x v="266"/>
+    <n v="0.38571428571428573"/>
+    <n v="0.45333333333333331"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2018"/>
+    <n v="214"/>
+    <n v="84"/>
+    <n v="130"/>
+    <n v="0.3925233644859813"/>
+    <n v="0.60747663551401865"/>
+    <n v="112"/>
+    <n v="41"/>
+    <n v="71"/>
+    <x v="267"/>
+    <n v="0.48809523809523808"/>
+    <n v="0.5461538461538461"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2017"/>
+    <n v="227"/>
+    <n v="91"/>
+    <n v="136"/>
+    <n v="0.40088105726872247"/>
+    <n v="0.59911894273127753"/>
+    <n v="121"/>
+    <n v="46"/>
+    <n v="75"/>
+    <x v="268"/>
+    <n v="0.50549450549450547"/>
+    <n v="0.55147058823529416"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2016"/>
+    <n v="219"/>
+    <n v="86"/>
+    <n v="133"/>
+    <n v="0.39269406392694062"/>
+    <n v="0.60730593607305938"/>
+    <n v="111"/>
+    <n v="49"/>
+    <n v="62"/>
+    <x v="269"/>
+    <n v="0.56976744186046513"/>
+    <n v="0.46616541353383456"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2015"/>
+    <n v="221"/>
+    <n v="75"/>
+    <n v="146"/>
+    <n v="0.33936651583710409"/>
+    <n v="0.66063348416289591"/>
+    <n v="116"/>
+    <n v="38"/>
+    <n v="78"/>
+    <x v="270"/>
+    <n v="0.50666666666666671"/>
+    <n v="0.53424657534246578"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2014"/>
+    <n v="249"/>
+    <n v="90"/>
+    <n v="159"/>
+    <n v="0.36144578313253012"/>
+    <n v="0.63855421686746983"/>
+    <n v="127"/>
+    <n v="40"/>
+    <n v="87"/>
+    <x v="271"/>
+    <n v="0.44444444444444442"/>
+    <n v="0.54716981132075471"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2013"/>
+    <n v="235"/>
+    <n v="83"/>
+    <n v="152"/>
+    <n v="0.35319148936170214"/>
+    <n v="0.64680851063829792"/>
+    <n v="119"/>
+    <n v="44"/>
+    <n v="75"/>
+    <x v="272"/>
+    <n v="0.53012048192771088"/>
+    <n v="0.49342105263157893"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2012"/>
+    <n v="223"/>
+    <n v="86"/>
+    <n v="137"/>
+    <n v="0.38565022421524664"/>
+    <n v="0.61434977578475336"/>
+    <n v="128"/>
+    <n v="53"/>
+    <n v="75"/>
+    <x v="273"/>
+    <n v="0.61627906976744184"/>
+    <n v="0.54744525547445255"/>
+  </r>
+  <r>
+    <n v="199865"/>
+    <x v="24"/>
+    <n v="2011"/>
+    <n v="246"/>
+    <n v="98"/>
+    <n v="148"/>
+    <n v="0.3983739837398374"/>
+    <n v="0.60162601626016265"/>
+    <n v="110"/>
+    <n v="40"/>
+    <n v="70"/>
+    <x v="274"/>
+    <n v="0.40816326530612246"/>
+    <n v="0.47297297297297297"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2021"/>
+    <n v="239"/>
+    <n v="123"/>
+    <n v="116"/>
+    <n v="0.5146443514644351"/>
+    <n v="0.48535564853556484"/>
+    <n v="125"/>
+    <n v="59"/>
+    <n v="66"/>
+    <x v="275"/>
+    <n v="0.47967479674796748"/>
+    <n v="0.56896551724137934"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2020"/>
+    <n v="218"/>
+    <n v="122"/>
+    <n v="96"/>
+    <n v="0.55963302752293576"/>
+    <n v="0.44036697247706424"/>
+    <n v="130"/>
+    <n v="69"/>
+    <n v="61"/>
+    <x v="276"/>
+    <n v="0.56557377049180324"/>
+    <n v="0.63541666666666663"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2019"/>
+    <n v="259"/>
+    <n v="134"/>
+    <n v="125"/>
+    <n v="0.51737451737451734"/>
+    <n v="0.4826254826254826"/>
+    <n v="154"/>
+    <n v="76"/>
+    <n v="78"/>
+    <x v="277"/>
+    <n v="0.56716417910447758"/>
+    <n v="0.624"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2018"/>
+    <n v="259"/>
+    <n v="147"/>
+    <n v="112"/>
+    <n v="0.56756756756756754"/>
+    <n v="0.43243243243243246"/>
+    <n v="149"/>
+    <n v="76"/>
+    <n v="73"/>
+    <x v="278"/>
+    <n v="0.51700680272108845"/>
+    <n v="0.6517857142857143"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2017"/>
+    <n v="252"/>
+    <n v="136"/>
+    <n v="116"/>
+    <n v="0.53968253968253965"/>
+    <n v="0.46031746031746029"/>
+    <n v="164"/>
+    <n v="84"/>
+    <n v="80"/>
+    <x v="279"/>
+    <n v="0.61764705882352944"/>
+    <n v="0.68965517241379315"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2016"/>
+    <n v="315"/>
+    <n v="176"/>
+    <n v="139"/>
+    <n v="0.55873015873015874"/>
+    <n v="0.44126984126984126"/>
+    <n v="203"/>
+    <n v="96"/>
+    <n v="107"/>
+    <x v="280"/>
+    <n v="0.54545454545454541"/>
+    <n v="0.76978417266187049"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2015"/>
+    <n v="311"/>
+    <n v="159"/>
+    <n v="152"/>
+    <n v="0.5112540192926045"/>
+    <n v="0.4887459807073955"/>
+    <n v="204"/>
+    <n v="94"/>
+    <n v="110"/>
+    <x v="281"/>
+    <n v="0.5911949685534591"/>
+    <n v="0.72368421052631582"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2014"/>
+    <n v="244"/>
+    <n v="136"/>
+    <n v="108"/>
+    <n v="0.55737704918032782"/>
+    <n v="0.44262295081967212"/>
+    <n v="162"/>
+    <n v="93"/>
+    <n v="69"/>
+    <x v="282"/>
+    <n v="0.68382352941176472"/>
+    <n v="0.63888888888888884"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2013"/>
+    <n v="223"/>
+    <n v="128"/>
+    <n v="95"/>
+    <n v="0.57399103139013452"/>
+    <n v="0.42600896860986548"/>
+    <n v="154"/>
+    <n v="85"/>
+    <n v="69"/>
+    <x v="283"/>
+    <n v="0.6640625"/>
+    <n v="0.72631578947368425"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2012"/>
+    <n v="278"/>
+    <n v="139"/>
+    <n v="139"/>
+    <n v="0.5"/>
+    <n v="0.5"/>
+    <n v="195"/>
+    <n v="95"/>
+    <n v="100"/>
+    <x v="284"/>
+    <n v="0.68345323741007191"/>
+    <n v="0.71942446043165464"/>
+  </r>
+  <r>
+    <n v="179946"/>
+    <x v="25"/>
+    <n v="2011"/>
+    <n v="287"/>
+    <n v="162"/>
+    <n v="125"/>
+    <n v="0.56445993031358888"/>
+    <n v="0.43554006968641112"/>
+    <n v="181"/>
+    <n v="94"/>
+    <n v="87"/>
+    <x v="285"/>
+    <n v="0.58024691358024694"/>
+    <n v="0.69599999999999995"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2021"/>
+    <n v="346"/>
+    <n v="147"/>
+    <n v="199"/>
+    <n v="0.42485549132947975"/>
+    <n v="0.57514450867052025"/>
+    <n v="140"/>
+    <n v="55"/>
+    <n v="85"/>
+    <x v="286"/>
+    <n v="0.37414965986394561"/>
+    <n v="0.42713567839195982"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2020"/>
+    <n v="448"/>
+    <n v="183"/>
+    <n v="265"/>
+    <n v="0.40848214285714285"/>
+    <n v="0.5915178571428571"/>
+    <n v="196"/>
+    <n v="67"/>
+    <n v="129"/>
+    <x v="287"/>
+    <n v="0.36612021857923499"/>
+    <n v="0.48679245283018868"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2019"/>
+    <n v="419"/>
+    <n v="161"/>
+    <n v="258"/>
+    <n v="0.38424821002386633"/>
+    <n v="0.61575178997613367"/>
+    <n v="176"/>
+    <n v="76"/>
+    <n v="100"/>
+    <x v="288"/>
+    <n v="0.47204968944099379"/>
+    <n v="0.38759689922480622"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2018"/>
+    <n v="385"/>
+    <n v="187"/>
+    <n v="198"/>
+    <n v="0.48571428571428571"/>
+    <n v="0.51428571428571423"/>
+    <n v="156"/>
+    <n v="64"/>
+    <n v="92"/>
+    <x v="289"/>
+    <n v="0.34224598930481281"/>
+    <n v="0.46464646464646464"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2017"/>
+    <n v="319"/>
+    <n v="143"/>
+    <n v="176"/>
+    <n v="0.44827586206896552"/>
+    <n v="0.55172413793103448"/>
+    <n v="105"/>
+    <n v="45"/>
+    <n v="60"/>
+    <x v="290"/>
+    <n v="0.31468531468531469"/>
+    <n v="0.34090909090909088"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2016"/>
+    <n v="329"/>
+    <n v="137"/>
+    <n v="192"/>
+    <n v="0.41641337386018235"/>
+    <n v="0.5835866261398176"/>
+    <n v="153"/>
+    <n v="51"/>
+    <n v="102"/>
+    <x v="291"/>
+    <n v="0.37226277372262773"/>
+    <n v="0.53125"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2015"/>
+    <n v="337"/>
+    <n v="159"/>
+    <n v="178"/>
+    <n v="0.47181008902077154"/>
+    <n v="0.52818991097922852"/>
+    <n v="172"/>
+    <n v="83"/>
+    <n v="89"/>
+    <x v="292"/>
+    <n v="0.5220125786163522"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2014"/>
+    <n v="381"/>
+    <n v="179"/>
+    <n v="202"/>
+    <n v="0.46981627296587924"/>
+    <n v="0.53018372703412076"/>
+    <n v="176"/>
+    <n v="67"/>
+    <n v="109"/>
+    <x v="293"/>
+    <n v="0.37430167597765363"/>
+    <n v="0.53960396039603964"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2013"/>
+    <n v="345"/>
+    <n v="148"/>
+    <n v="197"/>
+    <n v="0.4289855072463768"/>
+    <n v="0.57101449275362315"/>
+    <n v="101"/>
+    <n v="29"/>
+    <n v="72"/>
+    <x v="294"/>
+    <n v="0.19594594594594594"/>
+    <n v="0.36548223350253806"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2012"/>
+    <n v="366"/>
+    <n v="191"/>
+    <n v="175"/>
+    <n v="0.52185792349726778"/>
+    <n v="0.47814207650273222"/>
+    <n v="129"/>
+    <n v="60"/>
+    <n v="69"/>
+    <x v="295"/>
+    <n v="0.31413612565445026"/>
+    <n v="0.39428571428571429"/>
+  </r>
+  <r>
+    <n v="141361"/>
+    <x v="26"/>
+    <n v="2011"/>
+    <n v="294"/>
+    <n v="128"/>
+    <n v="166"/>
+    <n v="0.43537414965986393"/>
+    <n v="0.56462585034013602"/>
+    <n v="103"/>
+    <n v="42"/>
+    <n v="61"/>
+    <x v="296"/>
+    <n v="0.328125"/>
+    <n v="0.36746987951807231"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD02E17B-458D-4E1D-857A-F49375D3721B}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0">
+      <items count="298">
+        <item x="10"/>
+        <item x="227"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="221"/>
+        <item x="228"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="252"/>
+        <item x="220"/>
+        <item x="246"/>
+        <item x="222"/>
+        <item x="7"/>
+        <item x="230"/>
+        <item x="294"/>
+        <item x="251"/>
+        <item x="248"/>
+        <item x="245"/>
+        <item x="244"/>
+        <item x="249"/>
+        <item x="3"/>
+        <item x="250"/>
+        <item x="225"/>
+        <item x="247"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="229"/>
+        <item x="253"/>
+        <item x="226"/>
+        <item x="296"/>
+        <item x="295"/>
+        <item x="256"/>
+        <item x="160"/>
+        <item x="224"/>
+        <item x="264"/>
+        <item x="159"/>
+        <item x="95"/>
+        <item x="286"/>
+        <item x="254"/>
+        <item x="289"/>
+        <item x="240"/>
+        <item x="259"/>
+        <item x="265"/>
+        <item x="258"/>
+        <item x="288"/>
+        <item x="232"/>
+        <item x="155"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="287"/>
+        <item x="93"/>
+        <item x="91"/>
+        <item x="242"/>
+        <item x="274"/>
+        <item x="231"/>
+        <item x="243"/>
+        <item x="233"/>
+        <item x="166"/>
+        <item x="98"/>
+        <item x="154"/>
+        <item x="88"/>
+        <item x="293"/>
+        <item x="291"/>
+        <item x="49"/>
+        <item x="236"/>
+        <item x="239"/>
+        <item x="263"/>
+        <item x="48"/>
+        <item x="163"/>
+        <item x="161"/>
+        <item x="157"/>
+        <item x="237"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="261"/>
+        <item x="164"/>
+        <item x="162"/>
+        <item x="257"/>
+        <item x="90"/>
+        <item x="255"/>
+        <item x="89"/>
+        <item x="43"/>
+        <item x="272"/>
+        <item x="269"/>
+        <item x="167"/>
+        <item x="271"/>
+        <item x="292"/>
+        <item x="42"/>
+        <item x="262"/>
+        <item x="76"/>
+        <item x="92"/>
+        <item x="37"/>
+        <item x="51"/>
+        <item x="96"/>
+        <item x="158"/>
+        <item x="275"/>
+        <item x="267"/>
+        <item x="238"/>
+        <item x="270"/>
+        <item x="171"/>
+        <item x="260"/>
+        <item x="94"/>
+        <item x="268"/>
+        <item x="97"/>
+        <item x="174"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="35"/>
+        <item x="172"/>
+        <item x="170"/>
+        <item x="38"/>
+        <item x="168"/>
+        <item x="50"/>
+        <item x="40"/>
+        <item x="109"/>
+        <item x="36"/>
+        <item x="187"/>
+        <item x="53"/>
+        <item x="194"/>
+        <item x="165"/>
+        <item x="45"/>
+        <item x="192"/>
+        <item x="173"/>
+        <item x="73"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="197"/>
+        <item x="107"/>
+        <item x="273"/>
+        <item x="190"/>
+        <item x="278"/>
+        <item x="193"/>
+        <item x="196"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="195"/>
+        <item x="188"/>
+        <item x="52"/>
+        <item x="46"/>
+        <item x="169"/>
+        <item x="277"/>
+        <item x="276"/>
+        <item x="234"/>
+        <item x="191"/>
+        <item x="105"/>
+        <item x="47"/>
+        <item x="108"/>
+        <item x="75"/>
+        <item x="102"/>
+        <item x="106"/>
+        <item x="99"/>
+        <item x="176"/>
+        <item x="103"/>
+        <item x="34"/>
+        <item x="150"/>
+        <item x="189"/>
+        <item x="144"/>
+        <item x="209"/>
+        <item x="33"/>
+        <item x="285"/>
+        <item x="184"/>
+        <item x="100"/>
+        <item x="110"/>
+        <item x="149"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="179"/>
+        <item x="80"/>
+        <item x="72"/>
+        <item x="151"/>
+        <item x="79"/>
+        <item x="183"/>
+        <item x="280"/>
+        <item x="152"/>
+        <item x="132"/>
+        <item x="68"/>
+        <item x="133"/>
+        <item x="279"/>
+        <item x="119"/>
+        <item x="101"/>
+        <item x="186"/>
+        <item x="281"/>
+        <item x="62"/>
+        <item x="104"/>
+        <item x="182"/>
+        <item x="87"/>
+        <item x="282"/>
+        <item x="180"/>
+        <item x="211"/>
+        <item x="143"/>
+        <item x="145"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="116"/>
+        <item x="71"/>
+        <item x="146"/>
+        <item x="210"/>
+        <item x="147"/>
+        <item x="141"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="67"/>
+        <item x="28"/>
+        <item x="63"/>
+        <item x="216"/>
+        <item x="22"/>
+        <item x="214"/>
+        <item x="213"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="177"/>
+        <item x="212"/>
+        <item x="81"/>
+        <item x="142"/>
+        <item x="117"/>
+        <item x="57"/>
+        <item x="215"/>
+        <item x="283"/>
+        <item x="112"/>
+        <item x="70"/>
+        <item x="65"/>
+        <item x="153"/>
+        <item x="219"/>
+        <item x="284"/>
+        <item x="27"/>
+        <item x="82"/>
+        <item x="69"/>
+        <item x="115"/>
+        <item x="64"/>
+        <item x="120"/>
+        <item x="85"/>
+        <item x="59"/>
+        <item x="114"/>
+        <item x="135"/>
+        <item x="23"/>
+        <item x="113"/>
+        <item x="178"/>
+        <item x="84"/>
+        <item x="185"/>
+        <item x="181"/>
+        <item x="86"/>
+        <item x="111"/>
+        <item x="148"/>
+        <item x="118"/>
+        <item x="137"/>
+        <item x="218"/>
+        <item x="77"/>
+        <item x="138"/>
+        <item x="66"/>
+        <item x="16"/>
+        <item x="136"/>
+        <item x="11"/>
+        <item x="140"/>
+        <item x="217"/>
+        <item x="25"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="58"/>
+        <item x="139"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="208"/>
+        <item x="17"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="205"/>
+        <item x="131"/>
+        <item x="200"/>
+        <item x="15"/>
+        <item x="207"/>
+        <item x="203"/>
+        <item x="130"/>
+        <item x="198"/>
+        <item x="128"/>
+        <item x="204"/>
+        <item x="129"/>
+        <item x="123"/>
+        <item x="127"/>
+        <item x="124"/>
+        <item x="122"/>
+        <item x="126"/>
+        <item x="121"/>
+        <item x="125"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Over All Grad Rate" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of % Women" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,7 +7602,7 @@
   <dimension ref="A1:N298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13660,4 +20738,346 @@
   <autoFilter ref="A1:N298" xr:uid="{332C5BB8-7B18-45DA-BDAE-F9030EBD905B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8C4A2E-7CFC-4783-91D3-7202485764CA}">
+  <dimension ref="A3:C31"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="298" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.21699997828393106</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.54089407828414382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.78066850051749914</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.56790110027406804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.69120657592254953</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.68323352848120689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.54120167073874115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.56635293269742248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.55117482887906211</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.57367605244694075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.68825476771664207</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.51854367390628742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.63914530431505723</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.54778388120628041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.68578496206814399</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.55023177530724143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.48242390985489064</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.67881121632860841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.61072891752284508</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.49082706972357892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.69212236606948119</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.55082270635814889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.91363695136060274</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.41978681647397376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.70811189367884197</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.66327558754654137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.66004993993380301</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.53255022932360774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.47017212583904766</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.50780692932569516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.53705218480617811</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.50296754071014604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.66703595466172283</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.47866755656637261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.57708616409562097</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.51247871079905161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.84929889195474073</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.60225733158280914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.68432147464107684</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.51607709496869147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.28585785143488845</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.60816511164144516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.48054450486338035</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.64566554741401594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.32718769891186067</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.59842195930467423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.4503908414577818</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.67147979880613107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.48782492355645118</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.62785542259709692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.6297301728550081</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.45775325522556271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.40267698205453345</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.55492424470508361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.58187741992571818</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.56182263525943799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>